--- a/Step Migrasi MFAPPL - OLSS/Step Migrasi MFAPPL - OLSS - ABDP.xlsx
+++ b/Step Migrasi MFAPPL - OLSS/Step Migrasi MFAPPL - OLSS - ABDP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OLS-Notes\Step Migrasi MFAPPL - OLSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FCCE81-3402-45B1-9A1C-289A52946CB6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79B40AA-115C-41D7-ADBD-56CC742B9A91}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{8E471E09-CA1A-4575-8A0B-A795130353BC}"/>
   </bookViews>
@@ -356,21 +356,6 @@
     <t>null as LastUpdatedDate</t>
   </si>
   <si>
-    <t>select a.* from db_owner.recon_agreement a where a.agreementnumber = '0000154/4/04/06/2022';</t>
-  </si>
-  <si>
-    <t>select a.* from db_owner.recon_detail_schedules a where a.agreementnumber = '0000154/4/04/06/2022';</t>
-  </si>
-  <si>
-    <t>select a.* from db_owner.recon_detail_schedules_merge a where a.agreementnumber = '0000154/4/04/06/2022';</t>
-  </si>
-  <si>
-    <t>select a.* from db_owner.recon_financed_objects a where a.agreementnumber = '0000154/4/04/06/2022';</t>
-  </si>
-  <si>
-    <t>select a.* from db_owner.recon_payment_schedules a where a.agreementnumber = '0000154/4/04/06/2022';</t>
-  </si>
-  <si>
     <t>select a.* from db_owner.recon_skd a where a.skd_number = '0000164/4/04/06/2022';</t>
   </si>
   <si>
@@ -383,9 +368,6 @@
     <t>select a.* from Tb_MKT_SKD_Dtl a where a.IdTb_MKT_SKD = 4471;</t>
   </si>
   <si>
-    <t>select a.* from OPLAgreement a where a.AgreementNumber = '0000154/4/04/06/2022';</t>
-  </si>
-  <si>
     <t>select a.* from OPLAgreementDetails a where a.IdOPLAgreement = 3539;</t>
   </si>
   <si>
@@ -405,9 +387,6 @@
   </si>
   <si>
     <t>select a.* from Tb_MGT_Current a where a.IdOPLAgreement = 3539;</t>
-  </si>
-  <si>
-    <t>select a.* from Tb_MTN_Monschdl a where a.AgreementNumber = '0000154/4/04/06/2022';</t>
   </si>
   <si>
     <r>
@@ -683,8 +662,29 @@
     <t>MFAPPL</t>
   </si>
   <si>
-    <r>
-      <t>select a.* from recon_agreement a where a.agreementnumber in ('</t>
+    <t>OLSS</t>
+  </si>
+  <si>
+    <t>CEK:</t>
+  </si>
+  <si>
+    <t>select d.*</t>
+  </si>
+  <si>
+    <t>join Tb_OPL_Unit c</t>
+  </si>
+  <si>
+    <t>on b.IdTb_OPL_Unit = c.IdTb_OPL_Unit</t>
+  </si>
+  <si>
+    <t>join Tb_MGT_HistoryDoc d</t>
+  </si>
+  <si>
+    <t>on c.IdTb_OPL_Unit = d.IdTb_OPL_Unit</t>
+  </si>
+  <si>
+    <r>
+      <t>where a.AgreementNumber = '</t>
     </r>
     <r>
       <rPr>
@@ -703,25 +703,39 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>');</t>
-    </r>
-  </si>
-  <si>
-    <t>OLSS</t>
-  </si>
-  <si>
-    <r>
-      <t>select a.* from db_owner.Recon_Agreement a where a.AGREEMENTNUMBER in ('</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>';</t>
+    </r>
+  </si>
+  <si>
+    <t>join TB_MGT_DailyRecordCar d</t>
+  </si>
+  <si>
+    <t>on a.IdOPLAgreement = d.IdOPLAgreement</t>
+  </si>
+  <si>
+    <t>and c.IdTb_OPL_Unit = d.IdTb_OPL_Unit</t>
+  </si>
+  <si>
+    <t>select e.*</t>
+  </si>
+  <si>
+    <t>join TB_MGT_DailyRecordCarHistory e</t>
+  </si>
+  <si>
+    <t>on d.IdTb_MGT_DailyRecordCar = e.IdTb_MGT_DailyRecordCar</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">select a.* from </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>0000740/4/08/07/2022</t>
+      <t>olss_mfappl</t>
     </r>
     <r>
       <rPr>
@@ -730,12 +744,25 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>');</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>select a.* from recon_detail_schedules a where a.agreementnumber in ('</t>
+      <t>..</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>OLSS_MFAPPL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
     </r>
     <r>
       <rPr>
@@ -745,7 +772,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>0000740/4/08/07/2022</t>
+      <t>RECON_AGREEMENT</t>
     </r>
     <r>
       <rPr>
@@ -754,12 +781,49 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t xml:space="preserve"> a where a.agreementnumber in ('</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0000960/4/08/02/2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>');</t>
     </r>
   </si>
   <si>
     <r>
-      <t>select a.* from db_owner.recon_detail_schedules a where a.AGREEMENTNUMBER in ('</t>
+      <t xml:space="preserve">select a.* from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>db_owner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
     </r>
     <r>
       <rPr>
@@ -769,7 +833,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>0000740/4/08/07/2022</t>
+      <t>RECON_AGREEMENT</t>
     </r>
     <r>
       <rPr>
@@ -778,22 +842,40 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t xml:space="preserve"> a where a.agreementnumber in ('</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0000960/4/08/02/2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>');</t>
     </r>
   </si>
   <si>
     <r>
-      <t>select a.* from recon_detail_schedules_merge a where a.agreementnumber in ('</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">select a.* from </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>0000740/4/08/07/2022</t>
+      <t>olss_mfappl</t>
     </r>
     <r>
       <rPr>
@@ -802,12 +884,25 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>');</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>select a.* from db_owner.recon_detail_schedules_merge a where a.AGREEMENTNUMBER in ('</t>
+      <t>..</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>OLSS_MFAPPL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
     </r>
     <r>
       <rPr>
@@ -817,7 +912,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>0000740/4/08/07/2022</t>
+      <t>RECON_DETAIL_SCHEDULES</t>
     </r>
     <r>
       <rPr>
@@ -826,12 +921,49 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t xml:space="preserve"> a where a.agreementnumber in ('</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0000960/4/08/02/2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>');</t>
     </r>
   </si>
   <si>
     <r>
-      <t>select a.* from db_owner.recon_financed_objects a where a.AGREEMENTNUMBER in ('</t>
+      <t xml:space="preserve">select a.* from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>db_owner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
     </r>
     <r>
       <rPr>
@@ -841,7 +973,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>0000740/4/08/07/2022</t>
+      <t>RECON_DETAIL_SCHEDULES</t>
     </r>
     <r>
       <rPr>
@@ -850,22 +982,40 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t xml:space="preserve"> a where a.agreementnumber in ('</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0000960/4/08/02/2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>');</t>
     </r>
   </si>
   <si>
     <r>
-      <t>select a.* from recon_financed_objects a where a.agreementnumber in ('</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">select a.* from </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>0000740/4/08/07/2022</t>
+      <t>olss_mfappl</t>
     </r>
     <r>
       <rPr>
@@ -874,12 +1024,25 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>');</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>select a.* from recon_payment_schedules a WHERE a.agreementnumber in ('</t>
+      <t>..</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>OLSS_MFAPPL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
     </r>
     <r>
       <rPr>
@@ -889,7 +1052,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>0000740/4/08/07/2022</t>
+      <t>RECON_DETAIL_SCHEDULES_MERGE</t>
     </r>
     <r>
       <rPr>
@@ -898,12 +1061,49 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t xml:space="preserve"> a where a.agreementnumber in ('</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0000960/4/08/02/2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>');</t>
     </r>
   </si>
   <si>
     <r>
-      <t>select a.* from db_owner.recon_payment_schedules a where a.AGREEMENTNUMBER in ('</t>
+      <t xml:space="preserve">select a.* from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>db_owner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
     </r>
     <r>
       <rPr>
@@ -913,7 +1113,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>0000740/4/08/07/2022</t>
+      <t>RECON_DETAIL_SCHEDULES_MERGE</t>
     </r>
     <r>
       <rPr>
@@ -922,22 +1122,40 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t xml:space="preserve"> a where a.agreementnumber in ('</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0000960/4/08/02/2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>');</t>
     </r>
   </si>
   <si>
     <r>
-      <t>select a.* from recon_skd a where a.skd_number in ('</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">select a.* from </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>0000678/4/08/07/2022</t>
+      <t>olss_mfappl</t>
     </r>
     <r>
       <rPr>
@@ -946,12 +1164,25 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>');</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>select a.* from db_owner.Recon_SKD a where a.SKD_NUMBER in ('</t>
+      <t>..</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>OLSS_MFAPPL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
     </r>
     <r>
       <rPr>
@@ -961,7 +1192,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>0000678/4/08/07/2022</t>
+      <t>RECON_FINANCED_OBJECTS</t>
     </r>
     <r>
       <rPr>
@@ -970,12 +1201,49 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t xml:space="preserve"> a where a.agreementnumber in ('</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0000960/4/08/02/2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>');</t>
     </r>
   </si>
   <si>
     <r>
-      <t>select a.* from recon_skd_detail a where skd_number in ('</t>
+      <t xml:space="preserve">select a.* from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>db_owner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
     </r>
     <r>
       <rPr>
@@ -985,7 +1253,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>0000678/4/08/07/2022</t>
+      <t>RECON_FINANCED_OBJECTS</t>
     </r>
     <r>
       <rPr>
@@ -994,22 +1262,40 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t xml:space="preserve"> a where a.agreementnumber in ('</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0000960/4/08/02/2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>');</t>
     </r>
   </si>
   <si>
     <r>
-      <t>select a.* from db_owner.recon_skd_detail a where a.SKD_NUMBER in ('</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">select a.* from </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>0000678/4/08/07/2022</t>
+      <t>olss_mfappl</t>
     </r>
     <r>
       <rPr>
@@ -1018,30 +1304,25 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>');</t>
-    </r>
-  </si>
-  <si>
-    <t>CEK:</t>
-  </si>
-  <si>
-    <t>select d.*</t>
-  </si>
-  <si>
-    <t>join Tb_OPL_Unit c</t>
-  </si>
-  <si>
-    <t>on b.IdTb_OPL_Unit = c.IdTb_OPL_Unit</t>
-  </si>
-  <si>
-    <t>join Tb_MGT_HistoryDoc d</t>
-  </si>
-  <si>
-    <t>on c.IdTb_OPL_Unit = d.IdTb_OPL_Unit</t>
-  </si>
-  <si>
-    <r>
-      <t>where a.AgreementNumber = '</t>
+      <t>..</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>OLSS_MFAPPL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
     </r>
     <r>
       <rPr>
@@ -1051,7 +1332,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>0000740/4/08/07/2022</t>
+      <t>RECON_PAYMENT_SCHEDULES</t>
     </r>
     <r>
       <rPr>
@@ -1060,33 +1341,396 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>';</t>
-    </r>
-  </si>
-  <si>
-    <t>join TB_MGT_DailyRecordCar d</t>
-  </si>
-  <si>
-    <t>on a.IdOPLAgreement = d.IdOPLAgreement</t>
-  </si>
-  <si>
-    <t>and c.IdTb_OPL_Unit = d.IdTb_OPL_Unit</t>
-  </si>
-  <si>
-    <t>select e.*</t>
-  </si>
-  <si>
-    <t>join TB_MGT_DailyRecordCarHistory e</t>
-  </si>
-  <si>
-    <t>on d.IdTb_MGT_DailyRecordCar = e.IdTb_MGT_DailyRecordCar</t>
+      <t xml:space="preserve"> a WHERE a.agreementnumber in ('</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0000960/4/08/02/2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>');</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">select a.* from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>db_owner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>RECON_PAYMENT_SCHEDULES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> a where a.agreementnumber in ('</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0000960/4/08/02/2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>');</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">select a.* from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>olss_mfappl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>..</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>OLSS_MFAPPL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>RECON_SKD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> a where a.skd_number in ('</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0000883/4/08/12/2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>');</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">select a.* from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>db_owner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>RECON_SKD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> a where a.skd_number in ('</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0000883/4/08/12/2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>');</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">select a.* from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>olss_mfappl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>..</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>OLSS_MFAPPL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>RECON_SKD_DETAIL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> a where skd_number in ('</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0000883/4/08/12/2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>');</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">select a.* from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>db_owner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>RECON_SKD_DETAIL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> a where a.skd_number in ('</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0000883/4/08/12/2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>');</t>
+    </r>
+  </si>
+  <si>
+    <t>select a.* from db_owner.recon_agreement a where a.agreementnumber = '0000960/4/08/02/2023';</t>
+  </si>
+  <si>
+    <t>select a.* from db_owner.recon_detail_schedules a where a.agreementnumber = '0000960/4/08/02/2023';</t>
+  </si>
+  <si>
+    <t>select a.* from db_owner.recon_detail_schedules_merge a where a.agreementnumber = '0000960/4/08/02/2023';</t>
+  </si>
+  <si>
+    <t>select a.* from db_owner.recon_financed_objects a where a.agreementnumber = '0000960/4/08/02/2023';</t>
+  </si>
+  <si>
+    <t>select a.* from db_owner.recon_payment_schedules a where a.agreementnumber = '0000960/4/08/02/2023';</t>
+  </si>
+  <si>
+    <t>select a.* from OPLAgreement a where a.AgreementNumber = '0000960/4/08/02/2023';</t>
+  </si>
+  <si>
+    <t>select a.* from Tb_MTN_Monschdl a where a.AgreementNumber = '0000960/4/08/02/2023';</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1144,8 +1788,14 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1182,6 +1832,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1195,7 +1857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1237,6 +1899,18 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -2831,13 +3505,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
       <xdr:colOff>17547</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>123286</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2984,13 +3658,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
       <xdr:colOff>17547</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>123286</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3035,13 +3709,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>141643</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>170809</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3086,13 +3760,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
       <xdr:colOff>8119</xdr:colOff>
-      <xdr:row>223</xdr:row>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>123190</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3137,13 +3811,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
       <xdr:colOff>160519</xdr:colOff>
-      <xdr:row>224</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>85090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3188,13 +3862,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>179571</xdr:colOff>
-      <xdr:row>251</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>75571</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3239,13 +3913,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
       <xdr:colOff>141471</xdr:colOff>
-      <xdr:row>252</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>37471</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4021,7 +4695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3F2FA3-A8FE-4F8B-AB13-8DABD810DCE0}">
   <dimension ref="B2:AJ289"/>
   <sheetViews>
-    <sheetView topLeftCell="A316" workbookViewId="0">
+    <sheetView topLeftCell="A136" workbookViewId="0">
       <selection activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
@@ -4125,10 +4799,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46E3CBB-14E6-4306-99B4-EDC2BEE6A34A}">
-  <dimension ref="C54:CL342"/>
+  <dimension ref="C54:CL343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="BI308" sqref="BI308"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4137,120 +4811,148 @@
   </cols>
   <sheetData>
     <row r="54" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D54" s="1" t="s">
-        <v>143</v>
-      </c>
+      <c r="D54" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
       <c r="H54" s="13" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D55" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="D55" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
       <c r="H55" s="13" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D61" s="1" t="s">
-        <v>143</v>
-      </c>
+      <c r="D61" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
       <c r="H61" s="13" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D62" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="D62" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
       <c r="H62" s="13" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D68" s="1" t="s">
-        <v>143</v>
-      </c>
+      <c r="D68" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
       <c r="H68" s="13" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D69" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="D69" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
       <c r="H69" s="13" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D75" s="1" t="s">
-        <v>143</v>
-      </c>
+      <c r="D75" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
       <c r="H75" s="13" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D76" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="D76" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
       <c r="H76" s="13" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D82" s="1" t="s">
-        <v>143</v>
-      </c>
+      <c r="D82" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
       <c r="H82" s="13" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D83" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="D83" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
       <c r="H83" s="13" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D89" s="1" t="s">
-        <v>143</v>
-      </c>
+      <c r="D89" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
       <c r="H89" s="13" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D90" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="D90" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
       <c r="H90" s="13" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="96" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D96" s="1" t="s">
-        <v>143</v>
-      </c>
+      <c r="D96" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
       <c r="H96" s="13" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D97" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="D97" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
       <c r="H97" s="13" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="100" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D100" s="4" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -4297,7 +4999,7 @@
     </row>
     <row r="101" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D101" s="4" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -4344,7 +5046,7 @@
     </row>
     <row r="102" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D102" s="4" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
@@ -4391,7 +5093,7 @@
     </row>
     <row r="103" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D103" s="4" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
@@ -4438,7 +5140,7 @@
     </row>
     <row r="104" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D104" s="4" t="s">
-        <v>85</v>
+        <v>169</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
@@ -4485,7 +5187,7 @@
     </row>
     <row r="106" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D106" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
@@ -4525,7 +5227,7 @@
     </row>
     <row r="107" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D107" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
@@ -4565,7 +5267,7 @@
     </row>
     <row r="109" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D109" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
@@ -4602,7 +5304,7 @@
     </row>
     <row r="110" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D110" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
@@ -4637,46 +5339,9 @@
       <c r="AI110" s="5"/>
       <c r="AJ110" s="5"/>
     </row>
-    <row r="111" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D111" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5"/>
-      <c r="K111" s="5"/>
-      <c r="L111" s="5"/>
-      <c r="M111" s="5"/>
-      <c r="N111" s="5"/>
-      <c r="O111" s="5"/>
-      <c r="P111" s="5"/>
-      <c r="Q111" s="5"/>
-      <c r="R111" s="5"/>
-      <c r="S111" s="5"/>
-      <c r="T111" s="5"/>
-      <c r="U111" s="5"/>
-      <c r="V111" s="5"/>
-      <c r="W111" s="5"/>
-      <c r="X111" s="5"/>
-      <c r="Y111" s="5"/>
-      <c r="Z111" s="5"/>
-      <c r="AA111" s="5"/>
-      <c r="AB111" s="5"/>
-      <c r="AC111" s="5"/>
-      <c r="AD111" s="5"/>
-      <c r="AE111" s="5"/>
-      <c r="AF111" s="5"/>
-      <c r="AG111" s="5"/>
-      <c r="AH111" s="5"/>
-      <c r="AI111" s="5"/>
-      <c r="AJ111" s="5"/>
-    </row>
     <row r="112" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D112" s="4" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
@@ -4713,7 +5378,7 @@
     </row>
     <row r="113" spans="4:61" x14ac:dyDescent="0.25">
       <c r="D113" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
@@ -4750,7 +5415,7 @@
     </row>
     <row r="114" spans="4:61" x14ac:dyDescent="0.25">
       <c r="D114" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
@@ -4787,7 +5452,7 @@
     </row>
     <row r="115" spans="4:61" x14ac:dyDescent="0.25">
       <c r="D115" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
@@ -4822,71 +5487,46 @@
       <c r="AI115" s="5"/>
       <c r="AJ115" s="5"/>
     </row>
-    <row r="117" spans="4:61" x14ac:dyDescent="0.25">
-      <c r="D117" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
-      <c r="J117" s="5"/>
-      <c r="K117" s="5"/>
-      <c r="L117" s="5"/>
-      <c r="M117" s="5"/>
-      <c r="N117" s="5"/>
-      <c r="O117" s="5"/>
-      <c r="P117" s="5"/>
-      <c r="Q117" s="5"/>
-      <c r="R117" s="5"/>
-      <c r="S117" s="5"/>
-      <c r="T117" s="5"/>
-      <c r="U117" s="5"/>
-      <c r="V117" s="5"/>
-      <c r="W117" s="5"/>
-      <c r="X117" s="5"/>
-      <c r="Y117" s="5"/>
-      <c r="Z117" s="5"/>
-      <c r="AA117" s="5"/>
-      <c r="AB117" s="5"/>
-      <c r="AC117" s="5"/>
-      <c r="AD117" s="5"/>
-      <c r="AE117" s="5"/>
-      <c r="AF117" s="5"/>
-      <c r="AG117" s="5"/>
-      <c r="AH117" s="5"/>
-      <c r="AI117" s="5"/>
-      <c r="AJ117" s="5"/>
-      <c r="AK117" s="5"/>
-      <c r="AL117" s="5"/>
-      <c r="AM117" s="5"/>
-      <c r="AN117" s="5"/>
-      <c r="AO117" s="5"/>
-      <c r="AP117" s="5"/>
-      <c r="AQ117" s="5"/>
-      <c r="AR117" s="5"/>
-      <c r="AS117" s="5"/>
-      <c r="AT117" s="5"/>
-      <c r="AU117" s="5"/>
-      <c r="AV117" s="5"/>
-      <c r="AW117" s="5"/>
-      <c r="AX117" s="5"/>
-      <c r="AY117" s="5"/>
-      <c r="AZ117" s="5"/>
-      <c r="BA117" s="5"/>
-      <c r="BB117" s="5"/>
-      <c r="BC117" s="5"/>
-      <c r="BD117" s="5"/>
-      <c r="BE117" s="5"/>
-      <c r="BF117" s="5"/>
-      <c r="BG117" s="5"/>
-      <c r="BH117" s="5"/>
-      <c r="BI117" s="5"/>
+    <row r="116" spans="4:61" x14ac:dyDescent="0.25">
+      <c r="D116" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="5"/>
+      <c r="M116" s="5"/>
+      <c r="N116" s="5"/>
+      <c r="O116" s="5"/>
+      <c r="P116" s="5"/>
+      <c r="Q116" s="5"/>
+      <c r="R116" s="5"/>
+      <c r="S116" s="5"/>
+      <c r="T116" s="5"/>
+      <c r="U116" s="5"/>
+      <c r="V116" s="5"/>
+      <c r="W116" s="5"/>
+      <c r="X116" s="5"/>
+      <c r="Y116" s="5"/>
+      <c r="Z116" s="5"/>
+      <c r="AA116" s="5"/>
+      <c r="AB116" s="5"/>
+      <c r="AC116" s="5"/>
+      <c r="AD116" s="5"/>
+      <c r="AE116" s="5"/>
+      <c r="AF116" s="5"/>
+      <c r="AG116" s="5"/>
+      <c r="AH116" s="5"/>
+      <c r="AI116" s="5"/>
+      <c r="AJ116" s="5"/>
     </row>
     <row r="118" spans="4:61" x14ac:dyDescent="0.25">
       <c r="D118" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
@@ -4948,7 +5588,7 @@
     </row>
     <row r="119" spans="4:61" x14ac:dyDescent="0.25">
       <c r="D119" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
@@ -5010,7 +5650,7 @@
     </row>
     <row r="120" spans="4:61" x14ac:dyDescent="0.25">
       <c r="D120" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -5070,129 +5710,99 @@
       <c r="BH120" s="5"/>
       <c r="BI120" s="5"/>
     </row>
-    <row r="256" spans="3:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C256" s="9" t="s">
+    <row r="121" spans="4:61" x14ac:dyDescent="0.25">
+      <c r="D121" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="5"/>
+      <c r="M121" s="5"/>
+      <c r="N121" s="5"/>
+      <c r="O121" s="5"/>
+      <c r="P121" s="5"/>
+      <c r="Q121" s="5"/>
+      <c r="R121" s="5"/>
+      <c r="S121" s="5"/>
+      <c r="T121" s="5"/>
+      <c r="U121" s="5"/>
+      <c r="V121" s="5"/>
+      <c r="W121" s="5"/>
+      <c r="X121" s="5"/>
+      <c r="Y121" s="5"/>
+      <c r="Z121" s="5"/>
+      <c r="AA121" s="5"/>
+      <c r="AB121" s="5"/>
+      <c r="AC121" s="5"/>
+      <c r="AD121" s="5"/>
+      <c r="AE121" s="5"/>
+      <c r="AF121" s="5"/>
+      <c r="AG121" s="5"/>
+      <c r="AH121" s="5"/>
+      <c r="AI121" s="5"/>
+      <c r="AJ121" s="5"/>
+      <c r="AK121" s="5"/>
+      <c r="AL121" s="5"/>
+      <c r="AM121" s="5"/>
+      <c r="AN121" s="5"/>
+      <c r="AO121" s="5"/>
+      <c r="AP121" s="5"/>
+      <c r="AQ121" s="5"/>
+      <c r="AR121" s="5"/>
+      <c r="AS121" s="5"/>
+      <c r="AT121" s="5"/>
+      <c r="AU121" s="5"/>
+      <c r="AV121" s="5"/>
+      <c r="AW121" s="5"/>
+      <c r="AX121" s="5"/>
+      <c r="AY121" s="5"/>
+      <c r="AZ121" s="5"/>
+      <c r="BA121" s="5"/>
+      <c r="BB121" s="5"/>
+      <c r="BC121" s="5"/>
+      <c r="BD121" s="5"/>
+      <c r="BE121" s="5"/>
+      <c r="BF121" s="5"/>
+      <c r="BG121" s="5"/>
+      <c r="BH121" s="5"/>
+      <c r="BI121" s="5"/>
+    </row>
+    <row r="257" spans="3:90" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C257" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="257" spans="3:90" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" spans="3:90" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C258" s="11" t="s">
+    <row r="258" spans="3:90" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" spans="3:90" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C259" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="262" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C262" s="1" t="s">
+    <row r="263" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C263" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="264" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C264" s="6" t="s">
+    <row r="265" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C265" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AF264" s="6" t="s">
+      <c r="AF265" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="BH264" s="6" t="s">
+      <c r="BH265" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="266" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C266" s="7" t="s">
+    <row r="267" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C267" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D266" s="8"/>
-      <c r="E266" s="8"/>
-      <c r="F266" s="8"/>
-      <c r="G266" s="8"/>
-      <c r="H266" s="8"/>
-      <c r="I266" s="8"/>
-      <c r="J266" s="8"/>
-      <c r="K266" s="8"/>
-      <c r="L266" s="8"/>
-      <c r="M266" s="8"/>
-      <c r="N266" s="8"/>
-      <c r="O266" s="8"/>
-      <c r="P266" s="8"/>
-      <c r="Q266" s="8"/>
-      <c r="R266" s="8"/>
-      <c r="S266" s="8"/>
-      <c r="T266" s="8"/>
-      <c r="U266" s="8"/>
-      <c r="V266" s="8"/>
-      <c r="W266" s="8"/>
-      <c r="X266" s="8"/>
-      <c r="Y266" s="8"/>
-      <c r="Z266" s="8"/>
-      <c r="AA266" s="8"/>
-      <c r="AB266" s="8"/>
-      <c r="AC266" s="8"/>
-      <c r="AD266" s="8"/>
-      <c r="AF266" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG266" s="8"/>
-      <c r="AH266" s="8"/>
-      <c r="AI266" s="8"/>
-      <c r="AJ266" s="8"/>
-      <c r="AK266" s="8"/>
-      <c r="AL266" s="8"/>
-      <c r="AM266" s="8"/>
-      <c r="AN266" s="8"/>
-      <c r="AO266" s="8"/>
-      <c r="AP266" s="8"/>
-      <c r="AQ266" s="8"/>
-      <c r="AR266" s="8"/>
-      <c r="AS266" s="8"/>
-      <c r="AT266" s="8"/>
-      <c r="AU266" s="8"/>
-      <c r="AV266" s="8"/>
-      <c r="AW266" s="8"/>
-      <c r="AX266" s="8"/>
-      <c r="AY266" s="8"/>
-      <c r="AZ266" s="8"/>
-      <c r="BA266" s="8"/>
-      <c r="BB266" s="8"/>
-      <c r="BC266" s="8"/>
-      <c r="BD266" s="8"/>
-      <c r="BE266" s="8"/>
-      <c r="BF266" s="8"/>
-      <c r="BH266" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="BI266" s="8"/>
-      <c r="BJ266" s="8"/>
-      <c r="BK266" s="8"/>
-      <c r="BL266" s="8"/>
-      <c r="BM266" s="8"/>
-      <c r="BN266" s="8"/>
-      <c r="BO266" s="8"/>
-      <c r="BP266" s="8"/>
-      <c r="BQ266" s="8"/>
-      <c r="BR266" s="8"/>
-      <c r="BS266" s="8"/>
-      <c r="BT266" s="8"/>
-      <c r="BU266" s="8"/>
-      <c r="BV266" s="8"/>
-      <c r="BW266" s="8"/>
-      <c r="BX266" s="8"/>
-      <c r="BY266" s="8"/>
-      <c r="BZ266" s="8"/>
-      <c r="CA266" s="8"/>
-      <c r="CB266" s="8"/>
-      <c r="CC266" s="8"/>
-      <c r="CD266" s="8"/>
-      <c r="CE266" s="8"/>
-      <c r="CF266" s="8"/>
-      <c r="CG266" s="8"/>
-      <c r="CH266" s="8"/>
-      <c r="CI266" s="8"/>
-      <c r="CJ266" s="8"/>
-      <c r="CK266" s="8"/>
-      <c r="CL266" s="8"/>
-    </row>
-    <row r="267" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C267" s="7"/>
       <c r="D267" s="8"/>
       <c r="E267" s="8"/>
       <c r="F267" s="8"/>
@@ -5220,7 +5830,9 @@
       <c r="AB267" s="8"/>
       <c r="AC267" s="8"/>
       <c r="AD267" s="8"/>
-      <c r="AF267" s="7"/>
+      <c r="AF267" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="AG267" s="8"/>
       <c r="AH267" s="8"/>
       <c r="AI267" s="8"/>
@@ -5247,7 +5859,9 @@
       <c r="BD267" s="8"/>
       <c r="BE267" s="8"/>
       <c r="BF267" s="8"/>
-      <c r="BH267" s="7"/>
+      <c r="BH267" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="BI267" s="8"/>
       <c r="BJ267" s="8"/>
       <c r="BK267" s="8"/>
@@ -5280,9 +5894,7 @@
       <c r="CL267" s="8"/>
     </row>
     <row r="268" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C268" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="C268" s="7"/>
       <c r="D268" s="8"/>
       <c r="E268" s="8"/>
       <c r="F268" s="8"/>
@@ -5310,9 +5922,7 @@
       <c r="AB268" s="8"/>
       <c r="AC268" s="8"/>
       <c r="AD268" s="8"/>
-      <c r="AF268" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="AF268" s="7"/>
       <c r="AG268" s="8"/>
       <c r="AH268" s="8"/>
       <c r="AI268" s="8"/>
@@ -5339,9 +5949,7 @@
       <c r="BD268" s="8"/>
       <c r="BE268" s="8"/>
       <c r="BF268" s="8"/>
-      <c r="BH268" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="BH268" s="7"/>
       <c r="BI268" s="8"/>
       <c r="BJ268" s="8"/>
       <c r="BK268" s="8"/>
@@ -5375,7 +5983,7 @@
     </row>
     <row r="269" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C269" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D269" s="8"/>
       <c r="E269" s="8"/>
@@ -5405,7 +6013,7 @@
       <c r="AC269" s="8"/>
       <c r="AD269" s="8"/>
       <c r="AF269" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG269" s="8"/>
       <c r="AH269" s="8"/>
@@ -5434,7 +6042,7 @@
       <c r="BE269" s="8"/>
       <c r="BF269" s="8"/>
       <c r="BH269" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="BI269" s="8"/>
       <c r="BJ269" s="8"/>
@@ -5469,7 +6077,7 @@
     </row>
     <row r="270" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C270" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D270" s="8"/>
       <c r="E270" s="8"/>
@@ -5499,7 +6107,7 @@
       <c r="AC270" s="8"/>
       <c r="AD270" s="8"/>
       <c r="AF270" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AG270" s="8"/>
       <c r="AH270" s="8"/>
@@ -5528,7 +6136,7 @@
       <c r="BE270" s="8"/>
       <c r="BF270" s="8"/>
       <c r="BH270" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BI270" s="8"/>
       <c r="BJ270" s="8"/>
@@ -5563,7 +6171,7 @@
     </row>
     <row r="271" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C271" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D271" s="8"/>
       <c r="E271" s="8"/>
@@ -5593,7 +6201,7 @@
       <c r="AC271" s="8"/>
       <c r="AD271" s="8"/>
       <c r="AF271" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG271" s="8"/>
       <c r="AH271" s="8"/>
@@ -5622,7 +6230,7 @@
       <c r="BE271" s="8"/>
       <c r="BF271" s="8"/>
       <c r="BH271" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BI271" s="8"/>
       <c r="BJ271" s="8"/>
@@ -5657,7 +6265,7 @@
     </row>
     <row r="272" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C272" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D272" s="8"/>
       <c r="E272" s="8"/>
@@ -5687,7 +6295,7 @@
       <c r="AC272" s="8"/>
       <c r="AD272" s="8"/>
       <c r="AF272" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AG272" s="8"/>
       <c r="AH272" s="8"/>
@@ -5716,7 +6324,7 @@
       <c r="BE272" s="8"/>
       <c r="BF272" s="8"/>
       <c r="BH272" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="BI272" s="8"/>
       <c r="BJ272" s="8"/>
@@ -5750,7 +6358,9 @@
       <c r="CL272" s="8"/>
     </row>
     <row r="273" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C273" s="7"/>
+      <c r="C273" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="D273" s="8"/>
       <c r="E273" s="8"/>
       <c r="F273" s="8"/>
@@ -5779,7 +6389,7 @@
       <c r="AC273" s="8"/>
       <c r="AD273" s="8"/>
       <c r="AF273" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AG273" s="8"/>
       <c r="AH273" s="8"/>
@@ -5808,7 +6418,7 @@
       <c r="BE273" s="8"/>
       <c r="BF273" s="8"/>
       <c r="BH273" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BI273" s="8"/>
       <c r="BJ273" s="8"/>
@@ -5842,9 +6452,7 @@
       <c r="CL273" s="8"/>
     </row>
     <row r="274" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C274" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="C274" s="7"/>
       <c r="D274" s="8"/>
       <c r="E274" s="8"/>
       <c r="F274" s="8"/>
@@ -5873,7 +6481,7 @@
       <c r="AC274" s="8"/>
       <c r="AD274" s="8"/>
       <c r="AF274" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AG274" s="8"/>
       <c r="AH274" s="8"/>
@@ -5902,7 +6510,7 @@
       <c r="BE274" s="8"/>
       <c r="BF274" s="8"/>
       <c r="BH274" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="BI274" s="8"/>
       <c r="BJ274" s="8"/>
@@ -5937,7 +6545,7 @@
     </row>
     <row r="275" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C275" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D275" s="8"/>
       <c r="E275" s="8"/>
@@ -5967,7 +6575,7 @@
       <c r="AC275" s="8"/>
       <c r="AD275" s="8"/>
       <c r="AF275" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="AG275" s="8"/>
       <c r="AH275" s="8"/>
@@ -5996,7 +6604,7 @@
       <c r="BE275" s="8"/>
       <c r="BF275" s="8"/>
       <c r="BH275" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BI275" s="8"/>
       <c r="BJ275" s="8"/>
@@ -6031,7 +6639,7 @@
     </row>
     <row r="276" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C276" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D276" s="8"/>
       <c r="E276" s="8"/>
@@ -6060,7 +6668,9 @@
       <c r="AB276" s="8"/>
       <c r="AC276" s="8"/>
       <c r="AD276" s="8"/>
-      <c r="AF276" s="7"/>
+      <c r="AF276" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="AG276" s="8"/>
       <c r="AH276" s="8"/>
       <c r="AI276" s="8"/>
@@ -6088,7 +6698,7 @@
       <c r="BE276" s="8"/>
       <c r="BF276" s="8"/>
       <c r="BH276" s="7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="BI276" s="8"/>
       <c r="BJ276" s="8"/>
@@ -6123,7 +6733,7 @@
     </row>
     <row r="277" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C277" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D277" s="8"/>
       <c r="E277" s="8"/>
@@ -6152,9 +6762,7 @@
       <c r="AB277" s="8"/>
       <c r="AC277" s="8"/>
       <c r="AD277" s="8"/>
-      <c r="AF277" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="AF277" s="7"/>
       <c r="AG277" s="8"/>
       <c r="AH277" s="8"/>
       <c r="AI277" s="8"/>
@@ -6181,7 +6789,9 @@
       <c r="BD277" s="8"/>
       <c r="BE277" s="8"/>
       <c r="BF277" s="8"/>
-      <c r="BH277" s="7"/>
+      <c r="BH277" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="BI277" s="8"/>
       <c r="BJ277" s="8"/>
       <c r="BK277" s="8"/>
@@ -6215,7 +6825,7 @@
     </row>
     <row r="278" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C278" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D278" s="8"/>
       <c r="E278" s="8"/>
@@ -6245,7 +6855,7 @@
       <c r="AC278" s="8"/>
       <c r="AD278" s="8"/>
       <c r="AF278" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG278" s="8"/>
       <c r="AH278" s="8"/>
@@ -6273,9 +6883,7 @@
       <c r="BD278" s="8"/>
       <c r="BE278" s="8"/>
       <c r="BF278" s="8"/>
-      <c r="BH278" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="BH278" s="7"/>
       <c r="BI278" s="8"/>
       <c r="BJ278" s="8"/>
       <c r="BK278" s="8"/>
@@ -6308,38 +6916,38 @@
       <c r="CL278" s="8"/>
     </row>
     <row r="279" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C279" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D279" s="5"/>
-      <c r="E279" s="5"/>
-      <c r="F279" s="5"/>
-      <c r="G279" s="5"/>
-      <c r="H279" s="5"/>
-      <c r="I279" s="5"/>
-      <c r="J279" s="5"/>
-      <c r="K279" s="5"/>
-      <c r="L279" s="5"/>
-      <c r="M279" s="5"/>
-      <c r="N279" s="5"/>
-      <c r="O279" s="5"/>
-      <c r="P279" s="5"/>
-      <c r="Q279" s="5"/>
-      <c r="R279" s="5"/>
-      <c r="S279" s="5"/>
-      <c r="T279" s="5"/>
-      <c r="U279" s="5"/>
-      <c r="V279" s="5"/>
-      <c r="W279" s="5"/>
-      <c r="X279" s="5"/>
-      <c r="Y279" s="5"/>
-      <c r="Z279" s="5"/>
-      <c r="AA279" s="5"/>
-      <c r="AB279" s="5"/>
-      <c r="AC279" s="5"/>
-      <c r="AD279" s="5"/>
+      <c r="C279" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D279" s="8"/>
+      <c r="E279" s="8"/>
+      <c r="F279" s="8"/>
+      <c r="G279" s="8"/>
+      <c r="H279" s="8"/>
+      <c r="I279" s="8"/>
+      <c r="J279" s="8"/>
+      <c r="K279" s="8"/>
+      <c r="L279" s="8"/>
+      <c r="M279" s="8"/>
+      <c r="N279" s="8"/>
+      <c r="O279" s="8"/>
+      <c r="P279" s="8"/>
+      <c r="Q279" s="8"/>
+      <c r="R279" s="8"/>
+      <c r="S279" s="8"/>
+      <c r="T279" s="8"/>
+      <c r="U279" s="8"/>
+      <c r="V279" s="8"/>
+      <c r="W279" s="8"/>
+      <c r="X279" s="8"/>
+      <c r="Y279" s="8"/>
+      <c r="Z279" s="8"/>
+      <c r="AA279" s="8"/>
+      <c r="AB279" s="8"/>
+      <c r="AC279" s="8"/>
+      <c r="AD279" s="8"/>
       <c r="AF279" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG279" s="8"/>
       <c r="AH279" s="8"/>
@@ -6368,7 +6976,7 @@
       <c r="BE279" s="8"/>
       <c r="BF279" s="8"/>
       <c r="BH279" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BI279" s="8"/>
       <c r="BJ279" s="8"/>
@@ -6402,38 +7010,38 @@
       <c r="CL279" s="8"/>
     </row>
     <row r="280" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C280" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D280" s="8"/>
-      <c r="E280" s="8"/>
-      <c r="F280" s="8"/>
-      <c r="G280" s="8"/>
-      <c r="H280" s="8"/>
-      <c r="I280" s="8"/>
-      <c r="J280" s="8"/>
-      <c r="K280" s="8"/>
-      <c r="L280" s="8"/>
-      <c r="M280" s="8"/>
-      <c r="N280" s="8"/>
-      <c r="O280" s="8"/>
-      <c r="P280" s="8"/>
-      <c r="Q280" s="8"/>
-      <c r="R280" s="8"/>
-      <c r="S280" s="8"/>
-      <c r="T280" s="8"/>
-      <c r="U280" s="8"/>
-      <c r="V280" s="8"/>
-      <c r="W280" s="8"/>
-      <c r="X280" s="8"/>
-      <c r="Y280" s="8"/>
-      <c r="Z280" s="8"/>
-      <c r="AA280" s="8"/>
-      <c r="AB280" s="8"/>
-      <c r="AC280" s="8"/>
-      <c r="AD280" s="8"/>
+      <c r="C280" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D280" s="5"/>
+      <c r="E280" s="5"/>
+      <c r="F280" s="5"/>
+      <c r="G280" s="5"/>
+      <c r="H280" s="5"/>
+      <c r="I280" s="5"/>
+      <c r="J280" s="5"/>
+      <c r="K280" s="5"/>
+      <c r="L280" s="5"/>
+      <c r="M280" s="5"/>
+      <c r="N280" s="5"/>
+      <c r="O280" s="5"/>
+      <c r="P280" s="5"/>
+      <c r="Q280" s="5"/>
+      <c r="R280" s="5"/>
+      <c r="S280" s="5"/>
+      <c r="T280" s="5"/>
+      <c r="U280" s="5"/>
+      <c r="V280" s="5"/>
+      <c r="W280" s="5"/>
+      <c r="X280" s="5"/>
+      <c r="Y280" s="5"/>
+      <c r="Z280" s="5"/>
+      <c r="AA280" s="5"/>
+      <c r="AB280" s="5"/>
+      <c r="AC280" s="5"/>
+      <c r="AD280" s="5"/>
       <c r="AF280" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AG280" s="8"/>
       <c r="AH280" s="8"/>
@@ -6462,7 +7070,7 @@
       <c r="BE280" s="8"/>
       <c r="BF280" s="8"/>
       <c r="BH280" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BI280" s="8"/>
       <c r="BJ280" s="8"/>
@@ -6496,38 +7104,38 @@
       <c r="CL280" s="8"/>
     </row>
     <row r="281" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C281" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D281" s="5"/>
-      <c r="E281" s="5"/>
-      <c r="F281" s="5"/>
-      <c r="G281" s="5"/>
-      <c r="H281" s="5"/>
-      <c r="I281" s="5"/>
-      <c r="J281" s="5"/>
-      <c r="K281" s="5"/>
-      <c r="L281" s="5"/>
-      <c r="M281" s="5"/>
-      <c r="N281" s="5"/>
-      <c r="O281" s="5"/>
-      <c r="P281" s="5"/>
-      <c r="Q281" s="5"/>
-      <c r="R281" s="5"/>
-      <c r="S281" s="5"/>
-      <c r="T281" s="5"/>
-      <c r="U281" s="5"/>
-      <c r="V281" s="5"/>
-      <c r="W281" s="5"/>
-      <c r="X281" s="5"/>
-      <c r="Y281" s="5"/>
-      <c r="Z281" s="5"/>
-      <c r="AA281" s="5"/>
-      <c r="AB281" s="5"/>
-      <c r="AC281" s="5"/>
-      <c r="AD281" s="5"/>
+      <c r="C281" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D281" s="8"/>
+      <c r="E281" s="8"/>
+      <c r="F281" s="8"/>
+      <c r="G281" s="8"/>
+      <c r="H281" s="8"/>
+      <c r="I281" s="8"/>
+      <c r="J281" s="8"/>
+      <c r="K281" s="8"/>
+      <c r="L281" s="8"/>
+      <c r="M281" s="8"/>
+      <c r="N281" s="8"/>
+      <c r="O281" s="8"/>
+      <c r="P281" s="8"/>
+      <c r="Q281" s="8"/>
+      <c r="R281" s="8"/>
+      <c r="S281" s="8"/>
+      <c r="T281" s="8"/>
+      <c r="U281" s="8"/>
+      <c r="V281" s="8"/>
+      <c r="W281" s="8"/>
+      <c r="X281" s="8"/>
+      <c r="Y281" s="8"/>
+      <c r="Z281" s="8"/>
+      <c r="AA281" s="8"/>
+      <c r="AB281" s="8"/>
+      <c r="AC281" s="8"/>
+      <c r="AD281" s="8"/>
       <c r="AF281" s="7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="AG281" s="8"/>
       <c r="AH281" s="8"/>
@@ -6556,7 +7164,7 @@
       <c r="BE281" s="8"/>
       <c r="BF281" s="8"/>
       <c r="BH281" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BI281" s="8"/>
       <c r="BJ281" s="8"/>
@@ -6591,7 +7199,7 @@
     </row>
     <row r="282" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C282" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D282" s="5"/>
       <c r="E282" s="5"/>
@@ -6621,7 +7229,7 @@
       <c r="AC282" s="5"/>
       <c r="AD282" s="5"/>
       <c r="AF282" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AG282" s="8"/>
       <c r="AH282" s="8"/>
@@ -6650,7 +7258,7 @@
       <c r="BE282" s="8"/>
       <c r="BF282" s="8"/>
       <c r="BH282" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="BI282" s="8"/>
       <c r="BJ282" s="8"/>
@@ -6684,38 +7292,38 @@
       <c r="CL282" s="8"/>
     </row>
     <row r="283" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C283" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D283" s="8"/>
-      <c r="E283" s="8"/>
-      <c r="F283" s="8"/>
-      <c r="G283" s="8"/>
-      <c r="H283" s="8"/>
-      <c r="I283" s="8"/>
-      <c r="J283" s="8"/>
-      <c r="K283" s="8"/>
-      <c r="L283" s="8"/>
-      <c r="M283" s="8"/>
-      <c r="N283" s="8"/>
-      <c r="O283" s="8"/>
-      <c r="P283" s="8"/>
-      <c r="Q283" s="8"/>
-      <c r="R283" s="8"/>
-      <c r="S283" s="8"/>
-      <c r="T283" s="8"/>
-      <c r="U283" s="8"/>
-      <c r="V283" s="8"/>
-      <c r="W283" s="8"/>
-      <c r="X283" s="8"/>
-      <c r="Y283" s="8"/>
-      <c r="Z283" s="8"/>
-      <c r="AA283" s="8"/>
-      <c r="AB283" s="8"/>
-      <c r="AC283" s="8"/>
-      <c r="AD283" s="8"/>
+      <c r="C283" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D283" s="5"/>
+      <c r="E283" s="5"/>
+      <c r="F283" s="5"/>
+      <c r="G283" s="5"/>
+      <c r="H283" s="5"/>
+      <c r="I283" s="5"/>
+      <c r="J283" s="5"/>
+      <c r="K283" s="5"/>
+      <c r="L283" s="5"/>
+      <c r="M283" s="5"/>
+      <c r="N283" s="5"/>
+      <c r="O283" s="5"/>
+      <c r="P283" s="5"/>
+      <c r="Q283" s="5"/>
+      <c r="R283" s="5"/>
+      <c r="S283" s="5"/>
+      <c r="T283" s="5"/>
+      <c r="U283" s="5"/>
+      <c r="V283" s="5"/>
+      <c r="W283" s="5"/>
+      <c r="X283" s="5"/>
+      <c r="Y283" s="5"/>
+      <c r="Z283" s="5"/>
+      <c r="AA283" s="5"/>
+      <c r="AB283" s="5"/>
+      <c r="AC283" s="5"/>
+      <c r="AD283" s="5"/>
       <c r="AF283" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AG283" s="8"/>
       <c r="AH283" s="8"/>
@@ -6744,7 +7352,7 @@
       <c r="BE283" s="8"/>
       <c r="BF283" s="8"/>
       <c r="BH283" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BI283" s="8"/>
       <c r="BJ283" s="8"/>
@@ -6779,7 +7387,7 @@
     </row>
     <row r="284" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C284" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D284" s="8"/>
       <c r="E284" s="8"/>
@@ -6809,7 +7417,7 @@
       <c r="AC284" s="8"/>
       <c r="AD284" s="8"/>
       <c r="AF284" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AG284" s="8"/>
       <c r="AH284" s="8"/>
@@ -6838,7 +7446,7 @@
       <c r="BE284" s="8"/>
       <c r="BF284" s="8"/>
       <c r="BH284" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="BI284" s="8"/>
       <c r="BJ284" s="8"/>
@@ -6873,7 +7481,7 @@
     </row>
     <row r="285" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C285" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D285" s="8"/>
       <c r="E285" s="8"/>
@@ -6903,7 +7511,7 @@
       <c r="AC285" s="8"/>
       <c r="AD285" s="8"/>
       <c r="AF285" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AG285" s="8"/>
       <c r="AH285" s="8"/>
@@ -6932,7 +7540,7 @@
       <c r="BE285" s="8"/>
       <c r="BF285" s="8"/>
       <c r="BH285" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BI285" s="8"/>
       <c r="BJ285" s="8"/>
@@ -6967,7 +7575,7 @@
     </row>
     <row r="286" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C286" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D286" s="8"/>
       <c r="E286" s="8"/>
@@ -6997,7 +7605,7 @@
       <c r="AC286" s="8"/>
       <c r="AD286" s="8"/>
       <c r="AF286" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG286" s="8"/>
       <c r="AH286" s="8"/>
@@ -7026,7 +7634,7 @@
       <c r="BE286" s="8"/>
       <c r="BF286" s="8"/>
       <c r="BH286" s="7" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="BI286" s="8"/>
       <c r="BJ286" s="8"/>
@@ -7061,7 +7669,7 @@
     </row>
     <row r="287" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C287" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D287" s="8"/>
       <c r="E287" s="8"/>
@@ -7091,7 +7699,7 @@
       <c r="AC287" s="8"/>
       <c r="AD287" s="8"/>
       <c r="AF287" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AG287" s="8"/>
       <c r="AH287" s="8"/>
@@ -7119,43 +7727,43 @@
       <c r="BD287" s="8"/>
       <c r="BE287" s="8"/>
       <c r="BF287" s="8"/>
-      <c r="BH287" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BI287" s="5"/>
-      <c r="BJ287" s="5"/>
-      <c r="BK287" s="5"/>
-      <c r="BL287" s="5"/>
-      <c r="BM287" s="5"/>
-      <c r="BN287" s="5"/>
-      <c r="BO287" s="5"/>
-      <c r="BP287" s="5"/>
-      <c r="BQ287" s="5"/>
-      <c r="BR287" s="5"/>
-      <c r="BS287" s="5"/>
-      <c r="BT287" s="5"/>
-      <c r="BU287" s="5"/>
-      <c r="BV287" s="5"/>
-      <c r="BW287" s="5"/>
-      <c r="BX287" s="5"/>
-      <c r="BY287" s="5"/>
-      <c r="BZ287" s="5"/>
-      <c r="CA287" s="5"/>
-      <c r="CB287" s="5"/>
-      <c r="CC287" s="5"/>
-      <c r="CD287" s="5"/>
-      <c r="CE287" s="5"/>
-      <c r="CF287" s="5"/>
-      <c r="CG287" s="5"/>
-      <c r="CH287" s="5"/>
-      <c r="CI287" s="5"/>
-      <c r="CJ287" s="5"/>
-      <c r="CK287" s="5"/>
-      <c r="CL287" s="5"/>
+      <c r="BH287" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="BI287" s="8"/>
+      <c r="BJ287" s="8"/>
+      <c r="BK287" s="8"/>
+      <c r="BL287" s="8"/>
+      <c r="BM287" s="8"/>
+      <c r="BN287" s="8"/>
+      <c r="BO287" s="8"/>
+      <c r="BP287" s="8"/>
+      <c r="BQ287" s="8"/>
+      <c r="BR287" s="8"/>
+      <c r="BS287" s="8"/>
+      <c r="BT287" s="8"/>
+      <c r="BU287" s="8"/>
+      <c r="BV287" s="8"/>
+      <c r="BW287" s="8"/>
+      <c r="BX287" s="8"/>
+      <c r="BY287" s="8"/>
+      <c r="BZ287" s="8"/>
+      <c r="CA287" s="8"/>
+      <c r="CB287" s="8"/>
+      <c r="CC287" s="8"/>
+      <c r="CD287" s="8"/>
+      <c r="CE287" s="8"/>
+      <c r="CF287" s="8"/>
+      <c r="CG287" s="8"/>
+      <c r="CH287" s="8"/>
+      <c r="CI287" s="8"/>
+      <c r="CJ287" s="8"/>
+      <c r="CK287" s="8"/>
+      <c r="CL287" s="8"/>
     </row>
     <row r="288" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C288" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D288" s="8"/>
       <c r="E288" s="8"/>
@@ -7185,7 +7793,7 @@
       <c r="AC288" s="8"/>
       <c r="AD288" s="8"/>
       <c r="AF288" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AG288" s="8"/>
       <c r="AH288" s="8"/>
@@ -7213,71 +7821,73 @@
       <c r="BD288" s="8"/>
       <c r="BE288" s="8"/>
       <c r="BF288" s="8"/>
-      <c r="BH288" s="7"/>
-      <c r="BI288" s="8"/>
-      <c r="BJ288" s="8"/>
-      <c r="BK288" s="8"/>
-      <c r="BL288" s="8"/>
-      <c r="BM288" s="8"/>
-      <c r="BN288" s="8"/>
-      <c r="BO288" s="8"/>
-      <c r="BP288" s="8"/>
-      <c r="BQ288" s="8"/>
-      <c r="BR288" s="8"/>
-      <c r="BS288" s="8"/>
-      <c r="BT288" s="8"/>
-      <c r="BU288" s="8"/>
-      <c r="BV288" s="8"/>
-      <c r="BW288" s="8"/>
-      <c r="BX288" s="8"/>
-      <c r="BY288" s="8"/>
-      <c r="BZ288" s="8"/>
-      <c r="CA288" s="8"/>
-      <c r="CB288" s="8"/>
-      <c r="CC288" s="8"/>
-      <c r="CD288" s="8"/>
-      <c r="CE288" s="8"/>
-      <c r="CF288" s="8"/>
-      <c r="CG288" s="8"/>
-      <c r="CH288" s="8"/>
-      <c r="CI288" s="8"/>
-      <c r="CJ288" s="8"/>
-      <c r="CK288" s="8"/>
-      <c r="CL288" s="8"/>
+      <c r="BH288" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI288" s="5"/>
+      <c r="BJ288" s="5"/>
+      <c r="BK288" s="5"/>
+      <c r="BL288" s="5"/>
+      <c r="BM288" s="5"/>
+      <c r="BN288" s="5"/>
+      <c r="BO288" s="5"/>
+      <c r="BP288" s="5"/>
+      <c r="BQ288" s="5"/>
+      <c r="BR288" s="5"/>
+      <c r="BS288" s="5"/>
+      <c r="BT288" s="5"/>
+      <c r="BU288" s="5"/>
+      <c r="BV288" s="5"/>
+      <c r="BW288" s="5"/>
+      <c r="BX288" s="5"/>
+      <c r="BY288" s="5"/>
+      <c r="BZ288" s="5"/>
+      <c r="CA288" s="5"/>
+      <c r="CB288" s="5"/>
+      <c r="CC288" s="5"/>
+      <c r="CD288" s="5"/>
+      <c r="CE288" s="5"/>
+      <c r="CF288" s="5"/>
+      <c r="CG288" s="5"/>
+      <c r="CH288" s="5"/>
+      <c r="CI288" s="5"/>
+      <c r="CJ288" s="5"/>
+      <c r="CK288" s="5"/>
+      <c r="CL288" s="5"/>
     </row>
     <row r="289" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C289" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D289" s="5"/>
-      <c r="E289" s="5"/>
-      <c r="F289" s="5"/>
-      <c r="G289" s="5"/>
-      <c r="H289" s="5"/>
-      <c r="I289" s="5"/>
-      <c r="J289" s="5"/>
-      <c r="K289" s="5"/>
-      <c r="L289" s="5"/>
-      <c r="M289" s="5"/>
-      <c r="N289" s="5"/>
-      <c r="O289" s="5"/>
-      <c r="P289" s="5"/>
-      <c r="Q289" s="5"/>
-      <c r="R289" s="5"/>
-      <c r="S289" s="5"/>
-      <c r="T289" s="5"/>
-      <c r="U289" s="5"/>
-      <c r="V289" s="5"/>
-      <c r="W289" s="5"/>
-      <c r="X289" s="5"/>
-      <c r="Y289" s="5"/>
-      <c r="Z289" s="5"/>
-      <c r="AA289" s="5"/>
-      <c r="AB289" s="5"/>
-      <c r="AC289" s="5"/>
-      <c r="AD289" s="5"/>
+      <c r="C289" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D289" s="8"/>
+      <c r="E289" s="8"/>
+      <c r="F289" s="8"/>
+      <c r="G289" s="8"/>
+      <c r="H289" s="8"/>
+      <c r="I289" s="8"/>
+      <c r="J289" s="8"/>
+      <c r="K289" s="8"/>
+      <c r="L289" s="8"/>
+      <c r="M289" s="8"/>
+      <c r="N289" s="8"/>
+      <c r="O289" s="8"/>
+      <c r="P289" s="8"/>
+      <c r="Q289" s="8"/>
+      <c r="R289" s="8"/>
+      <c r="S289" s="8"/>
+      <c r="T289" s="8"/>
+      <c r="U289" s="8"/>
+      <c r="V289" s="8"/>
+      <c r="W289" s="8"/>
+      <c r="X289" s="8"/>
+      <c r="Y289" s="8"/>
+      <c r="Z289" s="8"/>
+      <c r="AA289" s="8"/>
+      <c r="AB289" s="8"/>
+      <c r="AC289" s="8"/>
+      <c r="AD289" s="8"/>
       <c r="AF289" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AG289" s="8"/>
       <c r="AH289" s="8"/>
@@ -7305,9 +7915,7 @@
       <c r="BD289" s="8"/>
       <c r="BE289" s="8"/>
       <c r="BF289" s="8"/>
-      <c r="BH289" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="BH289" s="7"/>
       <c r="BI289" s="8"/>
       <c r="BJ289" s="8"/>
       <c r="BK289" s="8"/>
@@ -7340,36 +7948,38 @@
       <c r="CL289" s="8"/>
     </row>
     <row r="290" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C290" s="7"/>
-      <c r="D290" s="8"/>
-      <c r="E290" s="8"/>
-      <c r="F290" s="8"/>
-      <c r="G290" s="8"/>
-      <c r="H290" s="8"/>
-      <c r="I290" s="8"/>
-      <c r="J290" s="8"/>
-      <c r="K290" s="8"/>
-      <c r="L290" s="8"/>
-      <c r="M290" s="8"/>
-      <c r="N290" s="8"/>
-      <c r="O290" s="8"/>
-      <c r="P290" s="8"/>
-      <c r="Q290" s="8"/>
-      <c r="R290" s="8"/>
-      <c r="S290" s="8"/>
-      <c r="T290" s="8"/>
-      <c r="U290" s="8"/>
-      <c r="V290" s="8"/>
-      <c r="W290" s="8"/>
-      <c r="X290" s="8"/>
-      <c r="Y290" s="8"/>
-      <c r="Z290" s="8"/>
-      <c r="AA290" s="8"/>
-      <c r="AB290" s="8"/>
-      <c r="AC290" s="8"/>
-      <c r="AD290" s="8"/>
+      <c r="C290" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D290" s="5"/>
+      <c r="E290" s="5"/>
+      <c r="F290" s="5"/>
+      <c r="G290" s="5"/>
+      <c r="H290" s="5"/>
+      <c r="I290" s="5"/>
+      <c r="J290" s="5"/>
+      <c r="K290" s="5"/>
+      <c r="L290" s="5"/>
+      <c r="M290" s="5"/>
+      <c r="N290" s="5"/>
+      <c r="O290" s="5"/>
+      <c r="P290" s="5"/>
+      <c r="Q290" s="5"/>
+      <c r="R290" s="5"/>
+      <c r="S290" s="5"/>
+      <c r="T290" s="5"/>
+      <c r="U290" s="5"/>
+      <c r="V290" s="5"/>
+      <c r="W290" s="5"/>
+      <c r="X290" s="5"/>
+      <c r="Y290" s="5"/>
+      <c r="Z290" s="5"/>
+      <c r="AA290" s="5"/>
+      <c r="AB290" s="5"/>
+      <c r="AC290" s="5"/>
+      <c r="AD290" s="5"/>
       <c r="AF290" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AG290" s="8"/>
       <c r="AH290" s="8"/>
@@ -7398,7 +8008,7 @@
       <c r="BE290" s="8"/>
       <c r="BF290" s="8"/>
       <c r="BH290" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BI290" s="8"/>
       <c r="BJ290" s="8"/>
@@ -7432,9 +8042,7 @@
       <c r="CL290" s="8"/>
     </row>
     <row r="291" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C291" s="7" t="s">
-        <v>72</v>
-      </c>
+      <c r="C291" s="7"/>
       <c r="D291" s="8"/>
       <c r="E291" s="8"/>
       <c r="F291" s="8"/>
@@ -7463,7 +8071,7 @@
       <c r="AC291" s="8"/>
       <c r="AD291" s="8"/>
       <c r="AF291" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AG291" s="8"/>
       <c r="AH291" s="8"/>
@@ -7491,9 +8099,44 @@
       <c r="BD291" s="8"/>
       <c r="BE291" s="8"/>
       <c r="BF291" s="8"/>
+      <c r="BH291" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI291" s="8"/>
+      <c r="BJ291" s="8"/>
+      <c r="BK291" s="8"/>
+      <c r="BL291" s="8"/>
+      <c r="BM291" s="8"/>
+      <c r="BN291" s="8"/>
+      <c r="BO291" s="8"/>
+      <c r="BP291" s="8"/>
+      <c r="BQ291" s="8"/>
+      <c r="BR291" s="8"/>
+      <c r="BS291" s="8"/>
+      <c r="BT291" s="8"/>
+      <c r="BU291" s="8"/>
+      <c r="BV291" s="8"/>
+      <c r="BW291" s="8"/>
+      <c r="BX291" s="8"/>
+      <c r="BY291" s="8"/>
+      <c r="BZ291" s="8"/>
+      <c r="CA291" s="8"/>
+      <c r="CB291" s="8"/>
+      <c r="CC291" s="8"/>
+      <c r="CD291" s="8"/>
+      <c r="CE291" s="8"/>
+      <c r="CF291" s="8"/>
+      <c r="CG291" s="8"/>
+      <c r="CH291" s="8"/>
+      <c r="CI291" s="8"/>
+      <c r="CJ291" s="8"/>
+      <c r="CK291" s="8"/>
+      <c r="CL291" s="8"/>
     </row>
     <row r="292" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C292" s="7"/>
+      <c r="C292" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="D292" s="8"/>
       <c r="E292" s="8"/>
       <c r="F292" s="8"/>
@@ -7522,7 +8165,7 @@
       <c r="AC292" s="8"/>
       <c r="AD292" s="8"/>
       <c r="AF292" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AG292" s="8"/>
       <c r="AH292" s="8"/>
@@ -7550,14 +8193,9 @@
       <c r="BD292" s="8"/>
       <c r="BE292" s="8"/>
       <c r="BF292" s="8"/>
-      <c r="BH292" s="14" t="s">
-        <v>159</v>
-      </c>
     </row>
     <row r="293" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C293" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="C293" s="7"/>
       <c r="D293" s="8"/>
       <c r="E293" s="8"/>
       <c r="F293" s="8"/>
@@ -7586,7 +8224,7 @@
       <c r="AC293" s="8"/>
       <c r="AD293" s="8"/>
       <c r="AF293" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG293" s="8"/>
       <c r="AH293" s="8"/>
@@ -7614,10 +8252,13 @@
       <c r="BD293" s="8"/>
       <c r="BE293" s="8"/>
       <c r="BF293" s="8"/>
+      <c r="BH293" s="14" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="294" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C294" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D294" s="8"/>
       <c r="E294" s="8"/>
@@ -7647,7 +8288,7 @@
       <c r="AC294" s="8"/>
       <c r="AD294" s="8"/>
       <c r="AF294" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AG294" s="8"/>
       <c r="AH294" s="8"/>
@@ -7675,35 +8316,10 @@
       <c r="BD294" s="8"/>
       <c r="BE294" s="8"/>
       <c r="BF294" s="8"/>
-      <c r="BH294" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="BI294" s="5"/>
-      <c r="BJ294" s="5"/>
-      <c r="BK294" s="5"/>
-      <c r="BL294" s="5"/>
-      <c r="BM294" s="5"/>
-      <c r="BN294" s="5"/>
-      <c r="BO294" s="5"/>
-      <c r="BP294" s="5"/>
-      <c r="BQ294" s="5"/>
-      <c r="BR294" s="5"/>
-      <c r="BS294" s="5"/>
-      <c r="BT294" s="5"/>
-      <c r="BU294" s="5"/>
-      <c r="BV294" s="5"/>
-      <c r="BW294" s="5"/>
-      <c r="BX294" s="5"/>
-      <c r="BY294" s="5"/>
-      <c r="BZ294" s="5"/>
-      <c r="CA294" s="5"/>
-      <c r="CB294" s="5"/>
-      <c r="CC294" s="5"/>
-      <c r="CD294" s="5"/>
     </row>
     <row r="295" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C295" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D295" s="8"/>
       <c r="E295" s="8"/>
@@ -7733,7 +8349,7 @@
       <c r="AC295" s="8"/>
       <c r="AD295" s="8"/>
       <c r="AF295" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG295" s="8"/>
       <c r="AH295" s="8"/>
@@ -7762,7 +8378,7 @@
       <c r="BE295" s="8"/>
       <c r="BF295" s="8"/>
       <c r="BH295" s="4" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="BI295" s="5"/>
       <c r="BJ295" s="5"/>
@@ -7789,7 +8405,7 @@
     </row>
     <row r="296" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C296" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D296" s="8"/>
       <c r="E296" s="8"/>
@@ -7819,7 +8435,7 @@
       <c r="AC296" s="8"/>
       <c r="AD296" s="8"/>
       <c r="AF296" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG296" s="8"/>
       <c r="AH296" s="8"/>
@@ -7848,7 +8464,7 @@
       <c r="BE296" s="8"/>
       <c r="BF296" s="8"/>
       <c r="BH296" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="BI296" s="5"/>
       <c r="BJ296" s="5"/>
@@ -7875,7 +8491,7 @@
     </row>
     <row r="297" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C297" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D297" s="8"/>
       <c r="E297" s="8"/>
@@ -7905,7 +8521,7 @@
       <c r="AC297" s="8"/>
       <c r="AD297" s="8"/>
       <c r="AF297" s="7" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="AG297" s="8"/>
       <c r="AH297" s="8"/>
@@ -7934,7 +8550,7 @@
       <c r="BE297" s="8"/>
       <c r="BF297" s="8"/>
       <c r="BH297" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BI297" s="5"/>
       <c r="BJ297" s="5"/>
@@ -7960,67 +8576,67 @@
       <c r="CD297" s="5"/>
     </row>
     <row r="298" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C298" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D298" s="5"/>
-      <c r="E298" s="5"/>
-      <c r="F298" s="5"/>
-      <c r="G298" s="5"/>
-      <c r="H298" s="5"/>
-      <c r="I298" s="5"/>
-      <c r="J298" s="5"/>
-      <c r="K298" s="5"/>
-      <c r="L298" s="5"/>
-      <c r="M298" s="5"/>
-      <c r="N298" s="5"/>
-      <c r="O298" s="5"/>
-      <c r="P298" s="5"/>
-      <c r="Q298" s="5"/>
-      <c r="R298" s="5"/>
-      <c r="S298" s="5"/>
-      <c r="T298" s="5"/>
-      <c r="U298" s="5"/>
-      <c r="V298" s="5"/>
-      <c r="W298" s="5"/>
-      <c r="X298" s="5"/>
-      <c r="Y298" s="5"/>
-      <c r="Z298" s="5"/>
-      <c r="AA298" s="5"/>
-      <c r="AB298" s="5"/>
-      <c r="AC298" s="5"/>
-      <c r="AD298" s="5"/>
-      <c r="AF298" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG298" s="5"/>
-      <c r="AH298" s="5"/>
-      <c r="AI298" s="5"/>
-      <c r="AJ298" s="5"/>
-      <c r="AK298" s="5"/>
-      <c r="AL298" s="5"/>
-      <c r="AM298" s="5"/>
-      <c r="AN298" s="5"/>
-      <c r="AO298" s="5"/>
-      <c r="AP298" s="5"/>
-      <c r="AQ298" s="5"/>
-      <c r="AR298" s="5"/>
-      <c r="AS298" s="5"/>
-      <c r="AT298" s="5"/>
-      <c r="AU298" s="5"/>
-      <c r="AV298" s="5"/>
-      <c r="AW298" s="5"/>
-      <c r="AX298" s="5"/>
-      <c r="AY298" s="5"/>
-      <c r="AZ298" s="5"/>
-      <c r="BA298" s="5"/>
-      <c r="BB298" s="5"/>
-      <c r="BC298" s="5"/>
-      <c r="BD298" s="5"/>
-      <c r="BE298" s="5"/>
-      <c r="BF298" s="5"/>
+      <c r="C298" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D298" s="8"/>
+      <c r="E298" s="8"/>
+      <c r="F298" s="8"/>
+      <c r="G298" s="8"/>
+      <c r="H298" s="8"/>
+      <c r="I298" s="8"/>
+      <c r="J298" s="8"/>
+      <c r="K298" s="8"/>
+      <c r="L298" s="8"/>
+      <c r="M298" s="8"/>
+      <c r="N298" s="8"/>
+      <c r="O298" s="8"/>
+      <c r="P298" s="8"/>
+      <c r="Q298" s="8"/>
+      <c r="R298" s="8"/>
+      <c r="S298" s="8"/>
+      <c r="T298" s="8"/>
+      <c r="U298" s="8"/>
+      <c r="V298" s="8"/>
+      <c r="W298" s="8"/>
+      <c r="X298" s="8"/>
+      <c r="Y298" s="8"/>
+      <c r="Z298" s="8"/>
+      <c r="AA298" s="8"/>
+      <c r="AB298" s="8"/>
+      <c r="AC298" s="8"/>
+      <c r="AD298" s="8"/>
+      <c r="AF298" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG298" s="8"/>
+      <c r="AH298" s="8"/>
+      <c r="AI298" s="8"/>
+      <c r="AJ298" s="8"/>
+      <c r="AK298" s="8"/>
+      <c r="AL298" s="8"/>
+      <c r="AM298" s="8"/>
+      <c r="AN298" s="8"/>
+      <c r="AO298" s="8"/>
+      <c r="AP298" s="8"/>
+      <c r="AQ298" s="8"/>
+      <c r="AR298" s="8"/>
+      <c r="AS298" s="8"/>
+      <c r="AT298" s="8"/>
+      <c r="AU298" s="8"/>
+      <c r="AV298" s="8"/>
+      <c r="AW298" s="8"/>
+      <c r="AX298" s="8"/>
+      <c r="AY298" s="8"/>
+      <c r="AZ298" s="8"/>
+      <c r="BA298" s="8"/>
+      <c r="BB298" s="8"/>
+      <c r="BC298" s="8"/>
+      <c r="BD298" s="8"/>
+      <c r="BE298" s="8"/>
+      <c r="BF298" s="8"/>
       <c r="BH298" s="4" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="BI298" s="5"/>
       <c r="BJ298" s="5"/>
@@ -8046,38 +8662,38 @@
       <c r="CD298" s="5"/>
     </row>
     <row r="299" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C299" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D299" s="8"/>
-      <c r="E299" s="8"/>
-      <c r="F299" s="8"/>
-      <c r="G299" s="8"/>
-      <c r="H299" s="8"/>
-      <c r="I299" s="8"/>
-      <c r="J299" s="8"/>
-      <c r="K299" s="8"/>
-      <c r="L299" s="8"/>
-      <c r="M299" s="8"/>
-      <c r="N299" s="8"/>
-      <c r="O299" s="8"/>
-      <c r="P299" s="8"/>
-      <c r="Q299" s="8"/>
-      <c r="R299" s="8"/>
-      <c r="S299" s="8"/>
-      <c r="T299" s="8"/>
-      <c r="U299" s="8"/>
-      <c r="V299" s="8"/>
-      <c r="W299" s="8"/>
-      <c r="X299" s="8"/>
-      <c r="Y299" s="8"/>
-      <c r="Z299" s="8"/>
-      <c r="AA299" s="8"/>
-      <c r="AB299" s="8"/>
-      <c r="AC299" s="8"/>
-      <c r="AD299" s="8"/>
+      <c r="C299" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D299" s="5"/>
+      <c r="E299" s="5"/>
+      <c r="F299" s="5"/>
+      <c r="G299" s="5"/>
+      <c r="H299" s="5"/>
+      <c r="I299" s="5"/>
+      <c r="J299" s="5"/>
+      <c r="K299" s="5"/>
+      <c r="L299" s="5"/>
+      <c r="M299" s="5"/>
+      <c r="N299" s="5"/>
+      <c r="O299" s="5"/>
+      <c r="P299" s="5"/>
+      <c r="Q299" s="5"/>
+      <c r="R299" s="5"/>
+      <c r="S299" s="5"/>
+      <c r="T299" s="5"/>
+      <c r="U299" s="5"/>
+      <c r="V299" s="5"/>
+      <c r="W299" s="5"/>
+      <c r="X299" s="5"/>
+      <c r="Y299" s="5"/>
+      <c r="Z299" s="5"/>
+      <c r="AA299" s="5"/>
+      <c r="AB299" s="5"/>
+      <c r="AC299" s="5"/>
+      <c r="AD299" s="5"/>
       <c r="AF299" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AG299" s="5"/>
       <c r="AH299" s="5"/>
@@ -8106,7 +8722,7 @@
       <c r="BE299" s="5"/>
       <c r="BF299" s="5"/>
       <c r="BH299" s="4" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="BI299" s="5"/>
       <c r="BJ299" s="5"/>
@@ -8132,67 +8748,67 @@
       <c r="CD299" s="5"/>
     </row>
     <row r="300" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C300" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D300" s="5"/>
-      <c r="E300" s="5"/>
-      <c r="F300" s="5"/>
-      <c r="G300" s="5"/>
-      <c r="H300" s="5"/>
-      <c r="I300" s="5"/>
-      <c r="J300" s="5"/>
-      <c r="K300" s="5"/>
-      <c r="L300" s="5"/>
-      <c r="M300" s="5"/>
-      <c r="N300" s="5"/>
-      <c r="O300" s="5"/>
-      <c r="P300" s="5"/>
-      <c r="Q300" s="5"/>
-      <c r="R300" s="5"/>
-      <c r="S300" s="5"/>
-      <c r="T300" s="5"/>
-      <c r="U300" s="5"/>
-      <c r="V300" s="5"/>
-      <c r="W300" s="5"/>
-      <c r="X300" s="5"/>
-      <c r="Y300" s="5"/>
-      <c r="Z300" s="5"/>
-      <c r="AA300" s="5"/>
-      <c r="AB300" s="5"/>
-      <c r="AC300" s="5"/>
-      <c r="AD300" s="5"/>
-      <c r="AF300" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG300" s="8"/>
-      <c r="AH300" s="8"/>
-      <c r="AI300" s="8"/>
-      <c r="AJ300" s="8"/>
-      <c r="AK300" s="8"/>
-      <c r="AL300" s="8"/>
-      <c r="AM300" s="8"/>
-      <c r="AN300" s="8"/>
-      <c r="AO300" s="8"/>
-      <c r="AP300" s="8"/>
-      <c r="AQ300" s="8"/>
-      <c r="AR300" s="8"/>
-      <c r="AS300" s="8"/>
-      <c r="AT300" s="8"/>
-      <c r="AU300" s="8"/>
-      <c r="AV300" s="8"/>
-      <c r="AW300" s="8"/>
-      <c r="AX300" s="8"/>
-      <c r="AY300" s="8"/>
-      <c r="AZ300" s="8"/>
-      <c r="BA300" s="8"/>
-      <c r="BB300" s="8"/>
-      <c r="BC300" s="8"/>
-      <c r="BD300" s="8"/>
-      <c r="BE300" s="8"/>
-      <c r="BF300" s="8"/>
+      <c r="C300" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D300" s="8"/>
+      <c r="E300" s="8"/>
+      <c r="F300" s="8"/>
+      <c r="G300" s="8"/>
+      <c r="H300" s="8"/>
+      <c r="I300" s="8"/>
+      <c r="J300" s="8"/>
+      <c r="K300" s="8"/>
+      <c r="L300" s="8"/>
+      <c r="M300" s="8"/>
+      <c r="N300" s="8"/>
+      <c r="O300" s="8"/>
+      <c r="P300" s="8"/>
+      <c r="Q300" s="8"/>
+      <c r="R300" s="8"/>
+      <c r="S300" s="8"/>
+      <c r="T300" s="8"/>
+      <c r="U300" s="8"/>
+      <c r="V300" s="8"/>
+      <c r="W300" s="8"/>
+      <c r="X300" s="8"/>
+      <c r="Y300" s="8"/>
+      <c r="Z300" s="8"/>
+      <c r="AA300" s="8"/>
+      <c r="AB300" s="8"/>
+      <c r="AC300" s="8"/>
+      <c r="AD300" s="8"/>
+      <c r="AF300" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG300" s="5"/>
+      <c r="AH300" s="5"/>
+      <c r="AI300" s="5"/>
+      <c r="AJ300" s="5"/>
+      <c r="AK300" s="5"/>
+      <c r="AL300" s="5"/>
+      <c r="AM300" s="5"/>
+      <c r="AN300" s="5"/>
+      <c r="AO300" s="5"/>
+      <c r="AP300" s="5"/>
+      <c r="AQ300" s="5"/>
+      <c r="AR300" s="5"/>
+      <c r="AS300" s="5"/>
+      <c r="AT300" s="5"/>
+      <c r="AU300" s="5"/>
+      <c r="AV300" s="5"/>
+      <c r="AW300" s="5"/>
+      <c r="AX300" s="5"/>
+      <c r="AY300" s="5"/>
+      <c r="AZ300" s="5"/>
+      <c r="BA300" s="5"/>
+      <c r="BB300" s="5"/>
+      <c r="BC300" s="5"/>
+      <c r="BD300" s="5"/>
+      <c r="BE300" s="5"/>
+      <c r="BF300" s="5"/>
       <c r="BH300" s="4" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="BI300" s="5"/>
       <c r="BJ300" s="5"/>
@@ -8219,7 +8835,7 @@
     </row>
     <row r="301" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C301" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D301" s="5"/>
       <c r="E301" s="5"/>
@@ -8249,7 +8865,7 @@
       <c r="AC301" s="5"/>
       <c r="AD301" s="5"/>
       <c r="AF301" s="7" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="AG301" s="8"/>
       <c r="AH301" s="8"/>
@@ -8278,7 +8894,7 @@
       <c r="BE301" s="8"/>
       <c r="BF301" s="8"/>
       <c r="BH301" s="4" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="BI301" s="5"/>
       <c r="BJ301" s="5"/>
@@ -8304,38 +8920,38 @@
       <c r="CD301" s="5"/>
     </row>
     <row r="302" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C302" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D302" s="8"/>
-      <c r="E302" s="8"/>
-      <c r="F302" s="8"/>
-      <c r="G302" s="8"/>
-      <c r="H302" s="8"/>
-      <c r="I302" s="8"/>
-      <c r="J302" s="8"/>
-      <c r="K302" s="8"/>
-      <c r="L302" s="8"/>
-      <c r="M302" s="8"/>
-      <c r="N302" s="8"/>
-      <c r="O302" s="8"/>
-      <c r="P302" s="8"/>
-      <c r="Q302" s="8"/>
-      <c r="R302" s="8"/>
-      <c r="S302" s="8"/>
-      <c r="T302" s="8"/>
-      <c r="U302" s="8"/>
-      <c r="V302" s="8"/>
-      <c r="W302" s="8"/>
-      <c r="X302" s="8"/>
-      <c r="Y302" s="8"/>
-      <c r="Z302" s="8"/>
-      <c r="AA302" s="8"/>
-      <c r="AB302" s="8"/>
-      <c r="AC302" s="8"/>
-      <c r="AD302" s="8"/>
+      <c r="C302" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D302" s="5"/>
+      <c r="E302" s="5"/>
+      <c r="F302" s="5"/>
+      <c r="G302" s="5"/>
+      <c r="H302" s="5"/>
+      <c r="I302" s="5"/>
+      <c r="J302" s="5"/>
+      <c r="K302" s="5"/>
+      <c r="L302" s="5"/>
+      <c r="M302" s="5"/>
+      <c r="N302" s="5"/>
+      <c r="O302" s="5"/>
+      <c r="P302" s="5"/>
+      <c r="Q302" s="5"/>
+      <c r="R302" s="5"/>
+      <c r="S302" s="5"/>
+      <c r="T302" s="5"/>
+      <c r="U302" s="5"/>
+      <c r="V302" s="5"/>
+      <c r="W302" s="5"/>
+      <c r="X302" s="5"/>
+      <c r="Y302" s="5"/>
+      <c r="Z302" s="5"/>
+      <c r="AA302" s="5"/>
+      <c r="AB302" s="5"/>
+      <c r="AC302" s="5"/>
+      <c r="AD302" s="5"/>
       <c r="AF302" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG302" s="8"/>
       <c r="AH302" s="8"/>
@@ -8364,7 +8980,7 @@
       <c r="BE302" s="8"/>
       <c r="BF302" s="8"/>
       <c r="BH302" s="4" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="BI302" s="5"/>
       <c r="BJ302" s="5"/>
@@ -8391,7 +9007,7 @@
     </row>
     <row r="303" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C303" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D303" s="8"/>
       <c r="E303" s="8"/>
@@ -8421,7 +9037,7 @@
       <c r="AC303" s="8"/>
       <c r="AD303" s="8"/>
       <c r="AF303" s="7" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="AG303" s="8"/>
       <c r="AH303" s="8"/>
@@ -8450,7 +9066,7 @@
       <c r="BE303" s="8"/>
       <c r="BF303" s="8"/>
       <c r="BH303" s="4" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="BI303" s="5"/>
       <c r="BJ303" s="5"/>
@@ -8477,7 +9093,7 @@
     </row>
     <row r="304" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C304" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D304" s="8"/>
       <c r="E304" s="8"/>
@@ -8507,7 +9123,7 @@
       <c r="AC304" s="8"/>
       <c r="AD304" s="8"/>
       <c r="AF304" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AG304" s="8"/>
       <c r="AH304" s="8"/>
@@ -8536,7 +9152,7 @@
       <c r="BE304" s="8"/>
       <c r="BF304" s="8"/>
       <c r="BH304" s="4" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="BI304" s="5"/>
       <c r="BJ304" s="5"/>
@@ -8563,7 +9179,7 @@
     </row>
     <row r="305" spans="3:82" x14ac:dyDescent="0.25">
       <c r="C305" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D305" s="8"/>
       <c r="E305" s="8"/>
@@ -8593,7 +9209,7 @@
       <c r="AC305" s="8"/>
       <c r="AD305" s="8"/>
       <c r="AF305" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AG305" s="8"/>
       <c r="AH305" s="8"/>
@@ -8622,7 +9238,7 @@
       <c r="BE305" s="8"/>
       <c r="BF305" s="8"/>
       <c r="BH305" s="4" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="BI305" s="5"/>
       <c r="BJ305" s="5"/>
@@ -8649,7 +9265,7 @@
     </row>
     <row r="306" spans="3:82" x14ac:dyDescent="0.25">
       <c r="C306" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D306" s="8"/>
       <c r="E306" s="8"/>
@@ -8678,39 +9294,64 @@
       <c r="AB306" s="8"/>
       <c r="AC306" s="8"/>
       <c r="AD306" s="8"/>
-      <c r="AF306" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG306" s="5"/>
-      <c r="AH306" s="5"/>
-      <c r="AI306" s="5"/>
-      <c r="AJ306" s="5"/>
-      <c r="AK306" s="5"/>
-      <c r="AL306" s="5"/>
-      <c r="AM306" s="5"/>
-      <c r="AN306" s="5"/>
-      <c r="AO306" s="5"/>
-      <c r="AP306" s="5"/>
-      <c r="AQ306" s="5"/>
-      <c r="AR306" s="5"/>
-      <c r="AS306" s="5"/>
-      <c r="AT306" s="5"/>
-      <c r="AU306" s="5"/>
-      <c r="AV306" s="5"/>
-      <c r="AW306" s="5"/>
-      <c r="AX306" s="5"/>
-      <c r="AY306" s="5"/>
-      <c r="AZ306" s="5"/>
-      <c r="BA306" s="5"/>
-      <c r="BB306" s="5"/>
-      <c r="BC306" s="5"/>
-      <c r="BD306" s="5"/>
-      <c r="BE306" s="5"/>
-      <c r="BF306" s="5"/>
+      <c r="AF306" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG306" s="8"/>
+      <c r="AH306" s="8"/>
+      <c r="AI306" s="8"/>
+      <c r="AJ306" s="8"/>
+      <c r="AK306" s="8"/>
+      <c r="AL306" s="8"/>
+      <c r="AM306" s="8"/>
+      <c r="AN306" s="8"/>
+      <c r="AO306" s="8"/>
+      <c r="AP306" s="8"/>
+      <c r="AQ306" s="8"/>
+      <c r="AR306" s="8"/>
+      <c r="AS306" s="8"/>
+      <c r="AT306" s="8"/>
+      <c r="AU306" s="8"/>
+      <c r="AV306" s="8"/>
+      <c r="AW306" s="8"/>
+      <c r="AX306" s="8"/>
+      <c r="AY306" s="8"/>
+      <c r="AZ306" s="8"/>
+      <c r="BA306" s="8"/>
+      <c r="BB306" s="8"/>
+      <c r="BC306" s="8"/>
+      <c r="BD306" s="8"/>
+      <c r="BE306" s="8"/>
+      <c r="BF306" s="8"/>
+      <c r="BH306" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI306" s="5"/>
+      <c r="BJ306" s="5"/>
+      <c r="BK306" s="5"/>
+      <c r="BL306" s="5"/>
+      <c r="BM306" s="5"/>
+      <c r="BN306" s="5"/>
+      <c r="BO306" s="5"/>
+      <c r="BP306" s="5"/>
+      <c r="BQ306" s="5"/>
+      <c r="BR306" s="5"/>
+      <c r="BS306" s="5"/>
+      <c r="BT306" s="5"/>
+      <c r="BU306" s="5"/>
+      <c r="BV306" s="5"/>
+      <c r="BW306" s="5"/>
+      <c r="BX306" s="5"/>
+      <c r="BY306" s="5"/>
+      <c r="BZ306" s="5"/>
+      <c r="CA306" s="5"/>
+      <c r="CB306" s="5"/>
+      <c r="CC306" s="5"/>
+      <c r="CD306" s="5"/>
     </row>
     <row r="307" spans="3:82" x14ac:dyDescent="0.25">
       <c r="C307" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D307" s="8"/>
       <c r="E307" s="8"/>
@@ -8739,68 +9380,68 @@
       <c r="AB307" s="8"/>
       <c r="AC307" s="8"/>
       <c r="AD307" s="8"/>
-      <c r="AF307" s="7"/>
-      <c r="AG307" s="8"/>
-      <c r="AH307" s="8"/>
-      <c r="AI307" s="8"/>
-      <c r="AJ307" s="8"/>
-      <c r="AK307" s="8"/>
-      <c r="AL307" s="8"/>
-      <c r="AM307" s="8"/>
-      <c r="AN307" s="8"/>
-      <c r="AO307" s="8"/>
-      <c r="AP307" s="8"/>
-      <c r="AQ307" s="8"/>
-      <c r="AR307" s="8"/>
-      <c r="AS307" s="8"/>
-      <c r="AT307" s="8"/>
-      <c r="AU307" s="8"/>
-      <c r="AV307" s="8"/>
-      <c r="AW307" s="8"/>
-      <c r="AX307" s="8"/>
-      <c r="AY307" s="8"/>
-      <c r="AZ307" s="8"/>
-      <c r="BA307" s="8"/>
-      <c r="BB307" s="8"/>
-      <c r="BC307" s="8"/>
-      <c r="BD307" s="8"/>
-      <c r="BE307" s="8"/>
-      <c r="BF307" s="8"/>
+      <c r="AF307" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG307" s="5"/>
+      <c r="AH307" s="5"/>
+      <c r="AI307" s="5"/>
+      <c r="AJ307" s="5"/>
+      <c r="AK307" s="5"/>
+      <c r="AL307" s="5"/>
+      <c r="AM307" s="5"/>
+      <c r="AN307" s="5"/>
+      <c r="AO307" s="5"/>
+      <c r="AP307" s="5"/>
+      <c r="AQ307" s="5"/>
+      <c r="AR307" s="5"/>
+      <c r="AS307" s="5"/>
+      <c r="AT307" s="5"/>
+      <c r="AU307" s="5"/>
+      <c r="AV307" s="5"/>
+      <c r="AW307" s="5"/>
+      <c r="AX307" s="5"/>
+      <c r="AY307" s="5"/>
+      <c r="AZ307" s="5"/>
+      <c r="BA307" s="5"/>
+      <c r="BB307" s="5"/>
+      <c r="BC307" s="5"/>
+      <c r="BD307" s="5"/>
+      <c r="BE307" s="5"/>
+      <c r="BF307" s="5"/>
     </row>
     <row r="308" spans="3:82" x14ac:dyDescent="0.25">
-      <c r="C308" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D308" s="5"/>
-      <c r="E308" s="5"/>
-      <c r="F308" s="5"/>
-      <c r="G308" s="5"/>
-      <c r="H308" s="5"/>
-      <c r="I308" s="5"/>
-      <c r="J308" s="5"/>
-      <c r="K308" s="5"/>
-      <c r="L308" s="5"/>
-      <c r="M308" s="5"/>
-      <c r="N308" s="5"/>
-      <c r="O308" s="5"/>
-      <c r="P308" s="5"/>
-      <c r="Q308" s="5"/>
-      <c r="R308" s="5"/>
-      <c r="S308" s="5"/>
-      <c r="T308" s="5"/>
-      <c r="U308" s="5"/>
-      <c r="V308" s="5"/>
-      <c r="W308" s="5"/>
-      <c r="X308" s="5"/>
-      <c r="Y308" s="5"/>
-      <c r="Z308" s="5"/>
-      <c r="AA308" s="5"/>
-      <c r="AB308" s="5"/>
-      <c r="AC308" s="5"/>
-      <c r="AD308" s="5"/>
-      <c r="AF308" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="C308" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D308" s="8"/>
+      <c r="E308" s="8"/>
+      <c r="F308" s="8"/>
+      <c r="G308" s="8"/>
+      <c r="H308" s="8"/>
+      <c r="I308" s="8"/>
+      <c r="J308" s="8"/>
+      <c r="K308" s="8"/>
+      <c r="L308" s="8"/>
+      <c r="M308" s="8"/>
+      <c r="N308" s="8"/>
+      <c r="O308" s="8"/>
+      <c r="P308" s="8"/>
+      <c r="Q308" s="8"/>
+      <c r="R308" s="8"/>
+      <c r="S308" s="8"/>
+      <c r="T308" s="8"/>
+      <c r="U308" s="8"/>
+      <c r="V308" s="8"/>
+      <c r="W308" s="8"/>
+      <c r="X308" s="8"/>
+      <c r="Y308" s="8"/>
+      <c r="Z308" s="8"/>
+      <c r="AA308" s="8"/>
+      <c r="AB308" s="8"/>
+      <c r="AC308" s="8"/>
+      <c r="AD308" s="8"/>
+      <c r="AF308" s="7"/>
       <c r="AG308" s="8"/>
       <c r="AH308" s="8"/>
       <c r="AI308" s="8"/>
@@ -8829,36 +9470,38 @@
       <c r="BF308" s="8"/>
     </row>
     <row r="309" spans="3:82" x14ac:dyDescent="0.25">
-      <c r="C309" s="7"/>
-      <c r="D309" s="8"/>
-      <c r="E309" s="8"/>
-      <c r="F309" s="8"/>
-      <c r="G309" s="8"/>
-      <c r="H309" s="8"/>
-      <c r="I309" s="8"/>
-      <c r="J309" s="8"/>
-      <c r="K309" s="8"/>
-      <c r="L309" s="8"/>
-      <c r="M309" s="8"/>
-      <c r="N309" s="8"/>
-      <c r="O309" s="8"/>
-      <c r="P309" s="8"/>
-      <c r="Q309" s="8"/>
-      <c r="R309" s="8"/>
-      <c r="S309" s="8"/>
-      <c r="T309" s="8"/>
-      <c r="U309" s="8"/>
-      <c r="V309" s="8"/>
-      <c r="W309" s="8"/>
-      <c r="X309" s="8"/>
-      <c r="Y309" s="8"/>
-      <c r="Z309" s="8"/>
-      <c r="AA309" s="8"/>
-      <c r="AB309" s="8"/>
-      <c r="AC309" s="8"/>
-      <c r="AD309" s="8"/>
+      <c r="C309" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D309" s="5"/>
+      <c r="E309" s="5"/>
+      <c r="F309" s="5"/>
+      <c r="G309" s="5"/>
+      <c r="H309" s="5"/>
+      <c r="I309" s="5"/>
+      <c r="J309" s="5"/>
+      <c r="K309" s="5"/>
+      <c r="L309" s="5"/>
+      <c r="M309" s="5"/>
+      <c r="N309" s="5"/>
+      <c r="O309" s="5"/>
+      <c r="P309" s="5"/>
+      <c r="Q309" s="5"/>
+      <c r="R309" s="5"/>
+      <c r="S309" s="5"/>
+      <c r="T309" s="5"/>
+      <c r="U309" s="5"/>
+      <c r="V309" s="5"/>
+      <c r="W309" s="5"/>
+      <c r="X309" s="5"/>
+      <c r="Y309" s="5"/>
+      <c r="Z309" s="5"/>
+      <c r="AA309" s="5"/>
+      <c r="AB309" s="5"/>
+      <c r="AC309" s="5"/>
+      <c r="AD309" s="5"/>
       <c r="AF309" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AG309" s="8"/>
       <c r="AH309" s="8"/>
@@ -8888,9 +9531,7 @@
       <c r="BF309" s="8"/>
     </row>
     <row r="310" spans="3:82" x14ac:dyDescent="0.25">
-      <c r="C310" s="7" t="s">
-        <v>72</v>
-      </c>
+      <c r="C310" s="7"/>
       <c r="D310" s="8"/>
       <c r="E310" s="8"/>
       <c r="F310" s="8"/>
@@ -8918,9 +9559,40 @@
       <c r="AB310" s="8"/>
       <c r="AC310" s="8"/>
       <c r="AD310" s="8"/>
+      <c r="AF310" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG310" s="8"/>
+      <c r="AH310" s="8"/>
+      <c r="AI310" s="8"/>
+      <c r="AJ310" s="8"/>
+      <c r="AK310" s="8"/>
+      <c r="AL310" s="8"/>
+      <c r="AM310" s="8"/>
+      <c r="AN310" s="8"/>
+      <c r="AO310" s="8"/>
+      <c r="AP310" s="8"/>
+      <c r="AQ310" s="8"/>
+      <c r="AR310" s="8"/>
+      <c r="AS310" s="8"/>
+      <c r="AT310" s="8"/>
+      <c r="AU310" s="8"/>
+      <c r="AV310" s="8"/>
+      <c r="AW310" s="8"/>
+      <c r="AX310" s="8"/>
+      <c r="AY310" s="8"/>
+      <c r="AZ310" s="8"/>
+      <c r="BA310" s="8"/>
+      <c r="BB310" s="8"/>
+      <c r="BC310" s="8"/>
+      <c r="BD310" s="8"/>
+      <c r="BE310" s="8"/>
+      <c r="BF310" s="8"/>
     </row>
     <row r="311" spans="3:82" x14ac:dyDescent="0.25">
-      <c r="C311" s="7"/>
+      <c r="C311" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="D311" s="8"/>
       <c r="E311" s="8"/>
       <c r="F311" s="8"/>
@@ -8948,14 +9620,9 @@
       <c r="AB311" s="8"/>
       <c r="AC311" s="8"/>
       <c r="AD311" s="8"/>
-      <c r="AF311" s="14" t="s">
-        <v>159</v>
-      </c>
     </row>
     <row r="312" spans="3:82" x14ac:dyDescent="0.25">
-      <c r="C312" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="C312" s="7"/>
       <c r="D312" s="8"/>
       <c r="E312" s="8"/>
       <c r="F312" s="8"/>
@@ -8983,10 +9650,13 @@
       <c r="AB312" s="8"/>
       <c r="AC312" s="8"/>
       <c r="AD312" s="8"/>
+      <c r="AF312" s="14" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="313" spans="3:82" x14ac:dyDescent="0.25">
       <c r="C313" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D313" s="8"/>
       <c r="E313" s="8"/>
@@ -9015,32 +9685,10 @@
       <c r="AB313" s="8"/>
       <c r="AC313" s="8"/>
       <c r="AD313" s="8"/>
-      <c r="AF313" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG313" s="5"/>
-      <c r="AH313" s="5"/>
-      <c r="AI313" s="5"/>
-      <c r="AJ313" s="5"/>
-      <c r="AK313" s="5"/>
-      <c r="AL313" s="5"/>
-      <c r="AM313" s="5"/>
-      <c r="AN313" s="5"/>
-      <c r="AO313" s="5"/>
-      <c r="AP313" s="5"/>
-      <c r="AQ313" s="5"/>
-      <c r="AR313" s="5"/>
-      <c r="AS313" s="5"/>
-      <c r="AT313" s="5"/>
-      <c r="AU313" s="5"/>
-      <c r="AV313" s="5"/>
-      <c r="AW313" s="5"/>
-      <c r="AX313" s="5"/>
-      <c r="AY313" s="5"/>
     </row>
     <row r="314" spans="3:82" x14ac:dyDescent="0.25">
       <c r="C314" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D314" s="8"/>
       <c r="E314" s="8"/>
@@ -9070,7 +9718,7 @@
       <c r="AC314" s="8"/>
       <c r="AD314" s="8"/>
       <c r="AF314" s="4" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="AG314" s="5"/>
       <c r="AH314" s="5"/>
@@ -9094,7 +9742,7 @@
     </row>
     <row r="315" spans="3:82" x14ac:dyDescent="0.25">
       <c r="C315" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D315" s="8"/>
       <c r="E315" s="8"/>
@@ -9124,7 +9772,7 @@
       <c r="AC315" s="8"/>
       <c r="AD315" s="8"/>
       <c r="AF315" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AG315" s="5"/>
       <c r="AH315" s="5"/>
@@ -9148,7 +9796,7 @@
     </row>
     <row r="316" spans="3:82" x14ac:dyDescent="0.25">
       <c r="C316" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D316" s="8"/>
       <c r="E316" s="8"/>
@@ -9178,7 +9826,7 @@
       <c r="AC316" s="8"/>
       <c r="AD316" s="8"/>
       <c r="AF316" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AG316" s="5"/>
       <c r="AH316" s="5"/>
@@ -9201,38 +9849,38 @@
       <c r="AY316" s="5"/>
     </row>
     <row r="317" spans="3:82" x14ac:dyDescent="0.25">
-      <c r="C317" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D317" s="5"/>
-      <c r="E317" s="5"/>
-      <c r="F317" s="5"/>
-      <c r="G317" s="5"/>
-      <c r="H317" s="5"/>
-      <c r="I317" s="5"/>
-      <c r="J317" s="5"/>
-      <c r="K317" s="5"/>
-      <c r="L317" s="5"/>
-      <c r="M317" s="5"/>
-      <c r="N317" s="5"/>
-      <c r="O317" s="5"/>
-      <c r="P317" s="5"/>
-      <c r="Q317" s="5"/>
-      <c r="R317" s="5"/>
-      <c r="S317" s="5"/>
-      <c r="T317" s="5"/>
-      <c r="U317" s="5"/>
-      <c r="V317" s="5"/>
-      <c r="W317" s="5"/>
-      <c r="X317" s="5"/>
-      <c r="Y317" s="5"/>
-      <c r="Z317" s="5"/>
-      <c r="AA317" s="5"/>
-      <c r="AB317" s="5"/>
-      <c r="AC317" s="5"/>
-      <c r="AD317" s="5"/>
+      <c r="C317" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D317" s="8"/>
+      <c r="E317" s="8"/>
+      <c r="F317" s="8"/>
+      <c r="G317" s="8"/>
+      <c r="H317" s="8"/>
+      <c r="I317" s="8"/>
+      <c r="J317" s="8"/>
+      <c r="K317" s="8"/>
+      <c r="L317" s="8"/>
+      <c r="M317" s="8"/>
+      <c r="N317" s="8"/>
+      <c r="O317" s="8"/>
+      <c r="P317" s="8"/>
+      <c r="Q317" s="8"/>
+      <c r="R317" s="8"/>
+      <c r="S317" s="8"/>
+      <c r="T317" s="8"/>
+      <c r="U317" s="8"/>
+      <c r="V317" s="8"/>
+      <c r="W317" s="8"/>
+      <c r="X317" s="8"/>
+      <c r="Y317" s="8"/>
+      <c r="Z317" s="8"/>
+      <c r="AA317" s="8"/>
+      <c r="AB317" s="8"/>
+      <c r="AC317" s="8"/>
+      <c r="AD317" s="8"/>
       <c r="AF317" s="4" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="AG317" s="5"/>
       <c r="AH317" s="5"/>
@@ -9255,38 +9903,38 @@
       <c r="AY317" s="5"/>
     </row>
     <row r="318" spans="3:82" x14ac:dyDescent="0.25">
-      <c r="C318" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D318" s="8"/>
-      <c r="E318" s="8"/>
-      <c r="F318" s="8"/>
-      <c r="G318" s="8"/>
-      <c r="H318" s="8"/>
-      <c r="I318" s="8"/>
-      <c r="J318" s="8"/>
-      <c r="K318" s="8"/>
-      <c r="L318" s="8"/>
-      <c r="M318" s="8"/>
-      <c r="N318" s="8"/>
-      <c r="O318" s="8"/>
-      <c r="P318" s="8"/>
-      <c r="Q318" s="8"/>
-      <c r="R318" s="8"/>
-      <c r="S318" s="8"/>
-      <c r="T318" s="8"/>
-      <c r="U318" s="8"/>
-      <c r="V318" s="8"/>
-      <c r="W318" s="8"/>
-      <c r="X318" s="8"/>
-      <c r="Y318" s="8"/>
-      <c r="Z318" s="8"/>
-      <c r="AA318" s="8"/>
-      <c r="AB318" s="8"/>
-      <c r="AC318" s="8"/>
-      <c r="AD318" s="8"/>
+      <c r="C318" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D318" s="5"/>
+      <c r="E318" s="5"/>
+      <c r="F318" s="5"/>
+      <c r="G318" s="5"/>
+      <c r="H318" s="5"/>
+      <c r="I318" s="5"/>
+      <c r="J318" s="5"/>
+      <c r="K318" s="5"/>
+      <c r="L318" s="5"/>
+      <c r="M318" s="5"/>
+      <c r="N318" s="5"/>
+      <c r="O318" s="5"/>
+      <c r="P318" s="5"/>
+      <c r="Q318" s="5"/>
+      <c r="R318" s="5"/>
+      <c r="S318" s="5"/>
+      <c r="T318" s="5"/>
+      <c r="U318" s="5"/>
+      <c r="V318" s="5"/>
+      <c r="W318" s="5"/>
+      <c r="X318" s="5"/>
+      <c r="Y318" s="5"/>
+      <c r="Z318" s="5"/>
+      <c r="AA318" s="5"/>
+      <c r="AB318" s="5"/>
+      <c r="AC318" s="5"/>
+      <c r="AD318" s="5"/>
       <c r="AF318" s="4" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="AG318" s="5"/>
       <c r="AH318" s="5"/>
@@ -9309,38 +9957,38 @@
       <c r="AY318" s="5"/>
     </row>
     <row r="319" spans="3:82" x14ac:dyDescent="0.25">
-      <c r="C319" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D319" s="5"/>
-      <c r="E319" s="5"/>
-      <c r="F319" s="5"/>
-      <c r="G319" s="5"/>
-      <c r="H319" s="5"/>
-      <c r="I319" s="5"/>
-      <c r="J319" s="5"/>
-      <c r="K319" s="5"/>
-      <c r="L319" s="5"/>
-      <c r="M319" s="5"/>
-      <c r="N319" s="5"/>
-      <c r="O319" s="5"/>
-      <c r="P319" s="5"/>
-      <c r="Q319" s="5"/>
-      <c r="R319" s="5"/>
-      <c r="S319" s="5"/>
-      <c r="T319" s="5"/>
-      <c r="U319" s="5"/>
-      <c r="V319" s="5"/>
-      <c r="W319" s="5"/>
-      <c r="X319" s="5"/>
-      <c r="Y319" s="5"/>
-      <c r="Z319" s="5"/>
-      <c r="AA319" s="5"/>
-      <c r="AB319" s="5"/>
-      <c r="AC319" s="5"/>
-      <c r="AD319" s="5"/>
+      <c r="C319" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D319" s="8"/>
+      <c r="E319" s="8"/>
+      <c r="F319" s="8"/>
+      <c r="G319" s="8"/>
+      <c r="H319" s="8"/>
+      <c r="I319" s="8"/>
+      <c r="J319" s="8"/>
+      <c r="K319" s="8"/>
+      <c r="L319" s="8"/>
+      <c r="M319" s="8"/>
+      <c r="N319" s="8"/>
+      <c r="O319" s="8"/>
+      <c r="P319" s="8"/>
+      <c r="Q319" s="8"/>
+      <c r="R319" s="8"/>
+      <c r="S319" s="8"/>
+      <c r="T319" s="8"/>
+      <c r="U319" s="8"/>
+      <c r="V319" s="8"/>
+      <c r="W319" s="8"/>
+      <c r="X319" s="8"/>
+      <c r="Y319" s="8"/>
+      <c r="Z319" s="8"/>
+      <c r="AA319" s="8"/>
+      <c r="AB319" s="8"/>
+      <c r="AC319" s="8"/>
+      <c r="AD319" s="8"/>
       <c r="AF319" s="4" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="AG319" s="5"/>
       <c r="AH319" s="5"/>
@@ -9364,7 +10012,7 @@
     </row>
     <row r="320" spans="3:82" x14ac:dyDescent="0.25">
       <c r="C320" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D320" s="5"/>
       <c r="E320" s="5"/>
@@ -9394,7 +10042,7 @@
       <c r="AC320" s="5"/>
       <c r="AD320" s="5"/>
       <c r="AF320" s="4" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="AG320" s="5"/>
       <c r="AH320" s="5"/>
@@ -9417,38 +10065,38 @@
       <c r="AY320" s="5"/>
     </row>
     <row r="321" spans="3:51" x14ac:dyDescent="0.25">
-      <c r="C321" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D321" s="8"/>
-      <c r="E321" s="8"/>
-      <c r="F321" s="8"/>
-      <c r="G321" s="8"/>
-      <c r="H321" s="8"/>
-      <c r="I321" s="8"/>
-      <c r="J321" s="8"/>
-      <c r="K321" s="8"/>
-      <c r="L321" s="8"/>
-      <c r="M321" s="8"/>
-      <c r="N321" s="8"/>
-      <c r="O321" s="8"/>
-      <c r="P321" s="8"/>
-      <c r="Q321" s="8"/>
-      <c r="R321" s="8"/>
-      <c r="S321" s="8"/>
-      <c r="T321" s="8"/>
-      <c r="U321" s="8"/>
-      <c r="V321" s="8"/>
-      <c r="W321" s="8"/>
-      <c r="X321" s="8"/>
-      <c r="Y321" s="8"/>
-      <c r="Z321" s="8"/>
-      <c r="AA321" s="8"/>
-      <c r="AB321" s="8"/>
-      <c r="AC321" s="8"/>
-      <c r="AD321" s="8"/>
+      <c r="C321" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D321" s="5"/>
+      <c r="E321" s="5"/>
+      <c r="F321" s="5"/>
+      <c r="G321" s="5"/>
+      <c r="H321" s="5"/>
+      <c r="I321" s="5"/>
+      <c r="J321" s="5"/>
+      <c r="K321" s="5"/>
+      <c r="L321" s="5"/>
+      <c r="M321" s="5"/>
+      <c r="N321" s="5"/>
+      <c r="O321" s="5"/>
+      <c r="P321" s="5"/>
+      <c r="Q321" s="5"/>
+      <c r="R321" s="5"/>
+      <c r="S321" s="5"/>
+      <c r="T321" s="5"/>
+      <c r="U321" s="5"/>
+      <c r="V321" s="5"/>
+      <c r="W321" s="5"/>
+      <c r="X321" s="5"/>
+      <c r="Y321" s="5"/>
+      <c r="Z321" s="5"/>
+      <c r="AA321" s="5"/>
+      <c r="AB321" s="5"/>
+      <c r="AC321" s="5"/>
+      <c r="AD321" s="5"/>
       <c r="AF321" s="4" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="AG321" s="5"/>
       <c r="AH321" s="5"/>
@@ -9472,7 +10120,7 @@
     </row>
     <row r="322" spans="3:51" x14ac:dyDescent="0.25">
       <c r="C322" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D322" s="8"/>
       <c r="E322" s="8"/>
@@ -9502,7 +10150,7 @@
       <c r="AC322" s="8"/>
       <c r="AD322" s="8"/>
       <c r="AF322" s="4" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="AG322" s="5"/>
       <c r="AH322" s="5"/>
@@ -9526,7 +10174,7 @@
     </row>
     <row r="323" spans="3:51" x14ac:dyDescent="0.25">
       <c r="C323" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D323" s="8"/>
       <c r="E323" s="8"/>
@@ -9555,10 +10203,32 @@
       <c r="AB323" s="8"/>
       <c r="AC323" s="8"/>
       <c r="AD323" s="8"/>
+      <c r="AF323" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG323" s="5"/>
+      <c r="AH323" s="5"/>
+      <c r="AI323" s="5"/>
+      <c r="AJ323" s="5"/>
+      <c r="AK323" s="5"/>
+      <c r="AL323" s="5"/>
+      <c r="AM323" s="5"/>
+      <c r="AN323" s="5"/>
+      <c r="AO323" s="5"/>
+      <c r="AP323" s="5"/>
+      <c r="AQ323" s="5"/>
+      <c r="AR323" s="5"/>
+      <c r="AS323" s="5"/>
+      <c r="AT323" s="5"/>
+      <c r="AU323" s="5"/>
+      <c r="AV323" s="5"/>
+      <c r="AW323" s="5"/>
+      <c r="AX323" s="5"/>
+      <c r="AY323" s="5"/>
     </row>
     <row r="324" spans="3:51" x14ac:dyDescent="0.25">
       <c r="C324" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D324" s="8"/>
       <c r="E324" s="8"/>
@@ -9590,7 +10260,7 @@
     </row>
     <row r="325" spans="3:51" x14ac:dyDescent="0.25">
       <c r="C325" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D325" s="8"/>
       <c r="E325" s="8"/>
@@ -9622,7 +10292,7 @@
     </row>
     <row r="326" spans="3:51" x14ac:dyDescent="0.25">
       <c r="C326" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D326" s="8"/>
       <c r="E326" s="8"/>
@@ -9653,71 +10323,71 @@
       <c r="AD326" s="8"/>
     </row>
     <row r="327" spans="3:51" x14ac:dyDescent="0.25">
-      <c r="C327" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D327" s="5"/>
-      <c r="E327" s="5"/>
-      <c r="F327" s="5"/>
-      <c r="G327" s="5"/>
-      <c r="H327" s="5"/>
-      <c r="I327" s="5"/>
-      <c r="J327" s="5"/>
-      <c r="K327" s="5"/>
-      <c r="L327" s="5"/>
-      <c r="M327" s="5"/>
-      <c r="N327" s="5"/>
-      <c r="O327" s="5"/>
-      <c r="P327" s="5"/>
-      <c r="Q327" s="5"/>
-      <c r="R327" s="5"/>
-      <c r="S327" s="5"/>
-      <c r="T327" s="5"/>
-      <c r="U327" s="5"/>
-      <c r="V327" s="5"/>
-      <c r="W327" s="5"/>
-      <c r="X327" s="5"/>
-      <c r="Y327" s="5"/>
-      <c r="Z327" s="5"/>
-      <c r="AA327" s="5"/>
-      <c r="AB327" s="5"/>
-      <c r="AC327" s="5"/>
-      <c r="AD327" s="5"/>
+      <c r="C327" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D327" s="8"/>
+      <c r="E327" s="8"/>
+      <c r="F327" s="8"/>
+      <c r="G327" s="8"/>
+      <c r="H327" s="8"/>
+      <c r="I327" s="8"/>
+      <c r="J327" s="8"/>
+      <c r="K327" s="8"/>
+      <c r="L327" s="8"/>
+      <c r="M327" s="8"/>
+      <c r="N327" s="8"/>
+      <c r="O327" s="8"/>
+      <c r="P327" s="8"/>
+      <c r="Q327" s="8"/>
+      <c r="R327" s="8"/>
+      <c r="S327" s="8"/>
+      <c r="T327" s="8"/>
+      <c r="U327" s="8"/>
+      <c r="V327" s="8"/>
+      <c r="W327" s="8"/>
+      <c r="X327" s="8"/>
+      <c r="Y327" s="8"/>
+      <c r="Z327" s="8"/>
+      <c r="AA327" s="8"/>
+      <c r="AB327" s="8"/>
+      <c r="AC327" s="8"/>
+      <c r="AD327" s="8"/>
     </row>
     <row r="328" spans="3:51" x14ac:dyDescent="0.25">
-      <c r="C328" s="7"/>
-      <c r="D328" s="8"/>
-      <c r="E328" s="8"/>
-      <c r="F328" s="8"/>
-      <c r="G328" s="8"/>
-      <c r="H328" s="8"/>
-      <c r="I328" s="8"/>
-      <c r="J328" s="8"/>
-      <c r="K328" s="8"/>
-      <c r="L328" s="8"/>
-      <c r="M328" s="8"/>
-      <c r="N328" s="8"/>
-      <c r="O328" s="8"/>
-      <c r="P328" s="8"/>
-      <c r="Q328" s="8"/>
-      <c r="R328" s="8"/>
-      <c r="S328" s="8"/>
-      <c r="T328" s="8"/>
-      <c r="U328" s="8"/>
-      <c r="V328" s="8"/>
-      <c r="W328" s="8"/>
-      <c r="X328" s="8"/>
-      <c r="Y328" s="8"/>
-      <c r="Z328" s="8"/>
-      <c r="AA328" s="8"/>
-      <c r="AB328" s="8"/>
-      <c r="AC328" s="8"/>
-      <c r="AD328" s="8"/>
+      <c r="C328" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D328" s="5"/>
+      <c r="E328" s="5"/>
+      <c r="F328" s="5"/>
+      <c r="G328" s="5"/>
+      <c r="H328" s="5"/>
+      <c r="I328" s="5"/>
+      <c r="J328" s="5"/>
+      <c r="K328" s="5"/>
+      <c r="L328" s="5"/>
+      <c r="M328" s="5"/>
+      <c r="N328" s="5"/>
+      <c r="O328" s="5"/>
+      <c r="P328" s="5"/>
+      <c r="Q328" s="5"/>
+      <c r="R328" s="5"/>
+      <c r="S328" s="5"/>
+      <c r="T328" s="5"/>
+      <c r="U328" s="5"/>
+      <c r="V328" s="5"/>
+      <c r="W328" s="5"/>
+      <c r="X328" s="5"/>
+      <c r="Y328" s="5"/>
+      <c r="Z328" s="5"/>
+      <c r="AA328" s="5"/>
+      <c r="AB328" s="5"/>
+      <c r="AC328" s="5"/>
+      <c r="AD328" s="5"/>
     </row>
     <row r="329" spans="3:51" x14ac:dyDescent="0.25">
-      <c r="C329" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="C329" s="7"/>
       <c r="D329" s="8"/>
       <c r="E329" s="8"/>
       <c r="F329" s="8"/>
@@ -9748,7 +10418,7 @@
     </row>
     <row r="330" spans="3:51" x14ac:dyDescent="0.25">
       <c r="C330" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D330" s="8"/>
       <c r="E330" s="8"/>
@@ -9778,38 +10448,46 @@
       <c r="AC330" s="8"/>
       <c r="AD330" s="8"/>
     </row>
-    <row r="332" spans="3:51" x14ac:dyDescent="0.25">
-      <c r="C332" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="334" spans="3:51" x14ac:dyDescent="0.25">
-      <c r="C334" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D334" s="5"/>
-      <c r="E334" s="5"/>
-      <c r="F334" s="5"/>
-      <c r="G334" s="5"/>
-      <c r="H334" s="5"/>
-      <c r="I334" s="5"/>
-      <c r="J334" s="5"/>
-      <c r="K334" s="5"/>
-      <c r="L334" s="5"/>
-      <c r="M334" s="5"/>
-      <c r="N334" s="5"/>
-      <c r="O334" s="5"/>
-      <c r="P334" s="5"/>
-      <c r="Q334" s="5"/>
-      <c r="R334" s="5"/>
-      <c r="S334" s="5"/>
-      <c r="T334" s="5"/>
-      <c r="U334" s="5"/>
-      <c r="V334" s="5"/>
+    <row r="331" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C331" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D331" s="8"/>
+      <c r="E331" s="8"/>
+      <c r="F331" s="8"/>
+      <c r="G331" s="8"/>
+      <c r="H331" s="8"/>
+      <c r="I331" s="8"/>
+      <c r="J331" s="8"/>
+      <c r="K331" s="8"/>
+      <c r="L331" s="8"/>
+      <c r="M331" s="8"/>
+      <c r="N331" s="8"/>
+      <c r="O331" s="8"/>
+      <c r="P331" s="8"/>
+      <c r="Q331" s="8"/>
+      <c r="R331" s="8"/>
+      <c r="S331" s="8"/>
+      <c r="T331" s="8"/>
+      <c r="U331" s="8"/>
+      <c r="V331" s="8"/>
+      <c r="W331" s="8"/>
+      <c r="X331" s="8"/>
+      <c r="Y331" s="8"/>
+      <c r="Z331" s="8"/>
+      <c r="AA331" s="8"/>
+      <c r="AB331" s="8"/>
+      <c r="AC331" s="8"/>
+      <c r="AD331" s="8"/>
+    </row>
+    <row r="333" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C333" s="14" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="335" spans="3:51" x14ac:dyDescent="0.25">
       <c r="C335" s="4" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="D335" s="5"/>
       <c r="E335" s="5"/>
@@ -9833,7 +10511,7 @@
     </row>
     <row r="336" spans="3:51" x14ac:dyDescent="0.25">
       <c r="C336" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D336" s="5"/>
       <c r="E336" s="5"/>
@@ -9857,7 +10535,7 @@
     </row>
     <row r="337" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C337" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D337" s="5"/>
       <c r="E337" s="5"/>
@@ -9881,7 +10559,7 @@
     </row>
     <row r="338" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C338" s="4" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="D338" s="5"/>
       <c r="E338" s="5"/>
@@ -9905,7 +10583,7 @@
     </row>
     <row r="339" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C339" s="4" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="D339" s="5"/>
       <c r="E339" s="5"/>
@@ -9929,7 +10607,7 @@
     </row>
     <row r="340" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C340" s="4" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="D340" s="5"/>
       <c r="E340" s="5"/>
@@ -9953,7 +10631,7 @@
     </row>
     <row r="341" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C341" s="4" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="D341" s="5"/>
       <c r="E341" s="5"/>
@@ -9977,7 +10655,7 @@
     </row>
     <row r="342" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C342" s="4" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D342" s="5"/>
       <c r="E342" s="5"/>
@@ -9998,6 +10676,30 @@
       <c r="T342" s="5"/>
       <c r="U342" s="5"/>
       <c r="V342" s="5"/>
+    </row>
+    <row r="343" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C343" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D343" s="5"/>
+      <c r="E343" s="5"/>
+      <c r="F343" s="5"/>
+      <c r="G343" s="5"/>
+      <c r="H343" s="5"/>
+      <c r="I343" s="5"/>
+      <c r="J343" s="5"/>
+      <c r="K343" s="5"/>
+      <c r="L343" s="5"/>
+      <c r="M343" s="5"/>
+      <c r="N343" s="5"/>
+      <c r="O343" s="5"/>
+      <c r="P343" s="5"/>
+      <c r="Q343" s="5"/>
+      <c r="R343" s="5"/>
+      <c r="S343" s="5"/>
+      <c r="T343" s="5"/>
+      <c r="U343" s="5"/>
+      <c r="V343" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10025,7 +10727,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -10050,7 +10752,7 @@
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D3" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -10098,7 +10800,7 @@
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D5" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -10123,7 +10825,7 @@
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D6" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -10148,7 +10850,7 @@
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D7" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -10173,7 +10875,7 @@
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D8" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -10198,7 +10900,7 @@
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D9" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -10223,7 +10925,7 @@
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D10" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -10248,7 +10950,7 @@
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D11" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -10273,7 +10975,7 @@
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D12" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -10298,7 +11000,7 @@
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D13" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -10323,7 +11025,7 @@
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D14" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -10348,7 +11050,7 @@
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D15" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -10373,7 +11075,7 @@
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D16" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -10421,7 +11123,7 @@
     </row>
     <row r="18" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D18" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -10446,7 +11148,7 @@
     </row>
     <row r="19" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D19" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -10471,7 +11173,7 @@
     </row>
     <row r="20" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D20" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -10521,7 +11223,7 @@
     </row>
     <row r="22" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D22" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -10571,7 +11273,7 @@
     </row>
     <row r="24" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D24" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -10596,7 +11298,7 @@
     </row>
     <row r="25" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D25" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -10621,7 +11323,7 @@
     </row>
     <row r="26" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D26" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -10669,7 +11371,7 @@
     </row>
     <row r="28" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D28" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -10694,7 +11396,7 @@
     </row>
     <row r="29" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D29" s="4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -10719,7 +11421,7 @@
     </row>
     <row r="30" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D30" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -10744,7 +11446,7 @@
     </row>
     <row r="31" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D31" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -10769,7 +11471,7 @@
     </row>
     <row r="32" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D32" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -10817,7 +11519,7 @@
     </row>
     <row r="34" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D34" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -10842,7 +11544,7 @@
     </row>
     <row r="35" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D35" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -10867,7 +11569,7 @@
     </row>
     <row r="36" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D36" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -10892,7 +11594,7 @@
     </row>
     <row r="37" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D37" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -10940,7 +11642,7 @@
     </row>
     <row r="39" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D39" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -10965,7 +11667,7 @@
     </row>
     <row r="40" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D40" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -11013,7 +11715,7 @@
     </row>
     <row r="42" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D42" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -11038,7 +11740,7 @@
     </row>
     <row r="43" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D43" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -11063,7 +11765,7 @@
     </row>
     <row r="44" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D44" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -11111,7 +11813,7 @@
     </row>
     <row r="46" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D46" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -11136,7 +11838,7 @@
     </row>
     <row r="47" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D47" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -11184,7 +11886,7 @@
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D49" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -11209,7 +11911,7 @@
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D50" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -11257,7 +11959,7 @@
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D52" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -11282,7 +11984,7 @@
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D53" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -11307,7 +12009,7 @@
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D54" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -11332,7 +12034,7 @@
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D55" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -11357,7 +12059,7 @@
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D56" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>

--- a/Step Migrasi MFAPPL - OLSS/Step Migrasi MFAPPL - OLSS - ABDP.xlsx
+++ b/Step Migrasi MFAPPL - OLSS/Step Migrasi MFAPPL - OLSS - ABDP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OLS-Notes\Step Migrasi MFAPPL - OLSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79B40AA-115C-41D7-ADBD-56CC742B9A91}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B95DB4C-3109-481D-934D-ABA413161AAD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{8E471E09-CA1A-4575-8A0B-A795130353BC}"/>
   </bookViews>
@@ -4695,7 +4695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3F2FA3-A8FE-4F8B-AB13-8DABD810DCE0}">
   <dimension ref="B2:AJ289"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
@@ -4801,8 +4801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46E3CBB-14E6-4306-99B4-EDC2BEE6A34A}">
   <dimension ref="C54:CL343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="AF314" sqref="AF314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10711,7 +10711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89615EC-A702-4475-A3E3-C865C99B9B41}">
   <dimension ref="B2:X60"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
